--- a/October 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
+++ b/October 2018/Miscellaneous/Contract_vs_Market-Contract Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\August 2018\Miscellaneous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooz\Documents\GitHub\GCD_BugFlowExperiment\October 2018\Miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -322,6 +322,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -347,30 +371,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,40 +474,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22.0267892676044</c:v>
+                  <c:v>18.903673196429899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.062118046998901</c:v>
+                  <c:v>18.9284254167322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0802512311915</c:v>
+                  <c:v>18.933059698084602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.125044752723401</c:v>
+                  <c:v>18.9476267076822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.9723253035082</c:v>
+                  <c:v>18.806695788443701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.8272251647251</c:v>
+                  <c:v>18.721007544644198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.626934833045098</c:v>
+                  <c:v>18.687180133691601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.4266445013651</c:v>
+                  <c:v>18.650850873964899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.1549689011471</c:v>
+                  <c:v>18.431676843718101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.821996041665301</c:v>
+                  <c:v>18.149956594116599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.413285117667499</c:v>
+                  <c:v>17.805690125160101</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.822857763708701</c:v>
+                  <c:v>17.310009352864103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,40 +600,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25.469993761509301</c:v>
+                  <c:v>21.822593000848901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.430626613748601</c:v>
+                  <c:v>21.776060984555201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.391581226607901</c:v>
+                  <c:v>21.725297788979798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.3306436858749</c:v>
+                  <c:v>21.640051438603201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.082779225556102</c:v>
+                  <c:v>21.428429479233298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.864527389753498</c:v>
+                  <c:v>21.301364690788198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.6208939646543</c:v>
+                  <c:v>21.259552732962899</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.3903884707379</c:v>
+                  <c:v>21.215238926363401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.069133875134501</c:v>
+                  <c:v>20.956142161753199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.687818035660101</c:v>
+                  <c:v>20.634499177788001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.230764131669599</c:v>
+                  <c:v>20.250309974468102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.582325201719701</c:v>
+                  <c:v>19.706721920935703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,40 +726,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28.917188730918099</c:v>
+                  <c:v>24.818533946589103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.908585802204698</c:v>
+                  <c:v>24.802300678914499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.885336047102601</c:v>
+                  <c:v>24.766529031895498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.855989770446502</c:v>
+                  <c:v>24.711265778631798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.596435432257699</c:v>
+                  <c:v>24.4894344775945</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.366493718584998</c:v>
+                  <c:v>24.352160347481998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.1357966286572</c:v>
+                  <c:v>24.321031509993198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.9182274699122</c:v>
+                  <c:v>24.287400823730202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.6616545501657</c:v>
+                  <c:v>24.0817196608023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.345020386548299</c:v>
+                  <c:v>23.8134922785196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.952648158414799</c:v>
+                  <c:v>23.482718676881998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.381827239493298</c:v>
+                  <c:v>23.003229345368499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,40 +1036,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22.0267892676044</c:v>
+                  <c:v>18.903673196429899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.062957401262</c:v>
+                  <c:v>18.925977948671697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.1016198889651</c:v>
+                  <c:v>18.949820959688999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.187536528305198</c:v>
+                  <c:v>19.002805428616099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.224673687057102</c:v>
+                  <c:v>19.025727407777602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.2697839099398</c:v>
+                  <c:v>19.0535692845325</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.261075949939798</c:v>
+                  <c:v>19.0481988805325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.252367989939803</c:v>
+                  <c:v>19.042828476532499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.0537825757586</c:v>
+                  <c:v>18.9203512525485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.748535805866101</c:v>
+                  <c:v>18.732090072333399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.443289035973603</c:v>
+                  <c:v>18.543828892118402</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.0769929121027</c:v>
+                  <c:v>18.3179154758603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,40 +1159,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25.469993761509301</c:v>
+                  <c:v>21.822593000848901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.512129051831799</c:v>
+                  <c:v>21.848577676203799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.554264342154397</c:v>
+                  <c:v>21.874562351558598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.638534922799597</c:v>
+                  <c:v>21.926531702268299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.635725903444701</c:v>
+                  <c:v>21.924826732978001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.632916884089898</c:v>
+                  <c:v>21.9231217636877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.571867530111398</c:v>
+                  <c:v>21.885469527644602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.510818176132897</c:v>
+                  <c:v>21.847817291601597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.205571406240399</c:v>
+                  <c:v>21.6595561113866</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.900324636348003</c:v>
+                  <c:v>21.471294931171499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.595077866455497</c:v>
+                  <c:v>21.283033750956502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.228781742584502</c:v>
+                  <c:v>21.0571203346984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,40 +1286,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>28.917188730918099</c:v>
+                  <c:v>24.818533946589103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.9593240212407</c:v>
+                  <c:v>24.844518621943898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.001459311563302</c:v>
+                  <c:v>24.870503297298701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.085729892208402</c:v>
+                  <c:v>24.922472648008398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.082920872853599</c:v>
+                  <c:v>24.9207676787181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.080111853498803</c:v>
+                  <c:v>24.919062709427799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.019062499520302</c:v>
+                  <c:v>24.8814104733848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.958013145541798</c:v>
+                  <c:v>24.843758237341699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.6527663756493</c:v>
+                  <c:v>24.655497057126702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.347519605756801</c:v>
+                  <c:v>24.467235876911598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.042272835864399</c:v>
+                  <c:v>24.278974696696601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.6759767119934</c:v>
+                  <c:v>24.053061280438502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,8 +1575,8 @@
         <c:axId val="1211617856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="18"/>
+          <c:max val="26"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4988,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,29 +4998,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -5050,24 +5050,24 @@
       <c r="AV1" s="3"/>
     </row>
     <row r="2" spans="1:68" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -5082,58 +5082,58 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="BC2" s="10" t="s">
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="BC2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
-      <c r="BH2" s="10"/>
-      <c r="BI2" s="10"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
     </row>
     <row r="3" spans="1:68" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -5250,51 +5250,51 @@
       </c>
       <c r="AK4">
         <f>BE4</f>
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="AL4">
         <f t="shared" ref="AL4:AV6" si="0">BF4</f>
-        <v>22084727.301261999</v>
+        <v>18939403.3642717</v>
       </c>
       <c r="AM4">
         <f t="shared" si="0"/>
-        <v>22146661.0613789</v>
+        <v>18977597.681620002</v>
       </c>
       <c r="AN4">
         <f t="shared" si="0"/>
-        <v>22284291.6394163</v>
+        <v>19062473.942393798</v>
       </c>
       <c r="AO4">
         <f t="shared" si="0"/>
-        <v>22357731.315857101</v>
+        <v>19107790.9850576</v>
       </c>
       <c r="AP4">
         <f t="shared" si="0"/>
-        <v>22443943.109939799</v>
+        <v>19160989.252532501</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="0"/>
-        <v>22443943.109939799</v>
+        <v>19160989.252532501</v>
       </c>
       <c r="AR4">
         <f t="shared" si="0"/>
-        <v>22429816.633393001</v>
+        <v>19152276.673279699</v>
       </c>
       <c r="AS4">
         <f t="shared" si="0"/>
-        <v>22107715.747371498</v>
+        <v>18953619.245322701</v>
       </c>
       <c r="AT4">
         <f t="shared" si="0"/>
-        <v>21785614.86135</v>
+        <v>18754961.817365699</v>
       </c>
       <c r="AU4">
         <f t="shared" si="0"/>
-        <v>21463513.975328501</v>
+        <v>18556304.3894087</v>
       </c>
       <c r="AV4">
         <f t="shared" si="0"/>
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
       <c r="BC4" s="9" t="s">
         <v>12</v>
@@ -5303,40 +5303,40 @@
         <v>13</v>
       </c>
       <c r="BE4" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BF4" s="9">
-        <v>22084727.301261999</v>
+        <v>18939403.3642717</v>
       </c>
       <c r="BG4" s="9">
-        <v>22146661.0613789</v>
+        <v>18977597.681620002</v>
       </c>
       <c r="BH4" s="9">
-        <v>22284291.6394163</v>
+        <v>19062473.942393798</v>
       </c>
       <c r="BI4" s="9">
-        <v>22357731.315857101</v>
+        <v>19107790.9850576</v>
       </c>
       <c r="BJ4" s="9">
-        <v>22443943.109939799</v>
+        <v>19160989.252532501</v>
       </c>
       <c r="BK4" s="9">
-        <v>22443943.109939799</v>
+        <v>19160989.252532501</v>
       </c>
       <c r="BL4" s="9">
-        <v>22429816.633393001</v>
+        <v>19152276.673279699</v>
       </c>
       <c r="BM4" s="9">
-        <v>22107715.747371498</v>
+        <v>18953619.245322701</v>
       </c>
       <c r="BN4" s="9">
-        <v>21785614.86135</v>
+        <v>18754961.817365699</v>
       </c>
       <c r="BO4" s="9">
-        <v>21463513.975328501</v>
+        <v>18556304.3894087</v>
       </c>
       <c r="BP4" s="9">
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.25">
@@ -5378,51 +5378,51 @@
       </c>
       <c r="AK5">
         <f t="shared" ref="AK5:AK6" si="1">BE5</f>
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="AL5">
         <f t="shared" si="0"/>
-        <v>25526174.148605999</v>
+        <v>21857239.234655399</v>
       </c>
       <c r="AM5">
         <f t="shared" si="0"/>
-        <v>25582354.535702799</v>
+        <v>21891885.4684618</v>
       </c>
       <c r="AN5">
         <f t="shared" si="0"/>
-        <v>25694715.309896398</v>
+        <v>21961177.936074801</v>
       </c>
       <c r="AO5">
         <f t="shared" si="0"/>
-        <v>25702580.564089902</v>
+        <v>21966061.2196877</v>
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
-        <v>25710445.818283498</v>
+        <v>21970944.5033006</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="0"/>
-        <v>25646025.641079199</v>
+        <v>21931213.017709199</v>
       </c>
       <c r="AR5">
         <f t="shared" si="0"/>
-        <v>25581605.463874899</v>
+        <v>21891481.532117799</v>
       </c>
       <c r="AS5">
         <f t="shared" si="0"/>
-        <v>25259504.5778534</v>
+        <v>21692824.104160801</v>
       </c>
       <c r="AT5">
         <f t="shared" si="0"/>
-        <v>24937403.691831801</v>
+        <v>21494166.676203799</v>
       </c>
       <c r="AU5">
         <f t="shared" si="0"/>
-        <v>24615302.805810299</v>
+        <v>21295509.2482468</v>
       </c>
       <c r="AV5">
         <f t="shared" si="0"/>
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
       <c r="BC5" s="9" t="s">
         <v>12</v>
@@ -5431,40 +5431,40 @@
         <v>14</v>
       </c>
       <c r="BE5" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BF5" s="9">
-        <v>25526174.148605999</v>
+        <v>21857239.234655399</v>
       </c>
       <c r="BG5" s="9">
-        <v>25582354.535702799</v>
+        <v>21891885.4684618</v>
       </c>
       <c r="BH5" s="9">
-        <v>25694715.309896398</v>
+        <v>21961177.936074801</v>
       </c>
       <c r="BI5" s="9">
-        <v>25702580.564089902</v>
+        <v>21966061.2196877</v>
       </c>
       <c r="BJ5" s="9">
-        <v>25710445.818283498</v>
+        <v>21970944.5033006</v>
       </c>
       <c r="BK5" s="9">
-        <v>25646025.641079199</v>
+        <v>21931213.017709199</v>
       </c>
       <c r="BL5" s="9">
-        <v>25581605.463874899</v>
+        <v>21891481.532117799</v>
       </c>
       <c r="BM5" s="9">
-        <v>25259504.5778534</v>
+        <v>21692824.104160801</v>
       </c>
       <c r="BN5" s="9">
-        <v>24937403.691831801</v>
+        <v>21494166.676203799</v>
       </c>
       <c r="BO5" s="9">
-        <v>24615302.805810299</v>
+        <v>21295509.2482468</v>
       </c>
       <c r="BP5" s="9">
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.25">
@@ -5476,15 +5476,15 @@
       </c>
       <c r="C6">
         <f>X63</f>
-        <v>22.0267892676044</v>
+        <v>18.903673196429899</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:E17" si="2">Y63</f>
-        <v>25.469993761509301</v>
+        <v>21.822593000848901</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>28.917188730918099</v>
+        <v>24.818533946589103</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -5494,15 +5494,15 @@
       </c>
       <c r="J6">
         <f>AK$19/1000000</f>
-        <v>22.0267892676044</v>
+        <v>18.903673196429899</v>
       </c>
       <c r="K6">
         <f>AK$20/1000000</f>
-        <v>25.469993761509301</v>
+        <v>21.822593000848901</v>
       </c>
       <c r="L6">
         <f>AK$21/1000000</f>
-        <v>28.917188730918099</v>
+        <v>24.818533946589103</v>
       </c>
       <c r="AI6" t="s">
         <v>12</v>
@@ -5512,51 +5512,51 @@
       </c>
       <c r="AK6">
         <f t="shared" si="1"/>
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="AL6">
         <f t="shared" si="0"/>
-        <v>28973369.118014898</v>
+        <v>24853180.180395499</v>
       </c>
       <c r="AM6">
         <f t="shared" si="0"/>
-        <v>29029549.505111702</v>
+        <v>24887826.414202001</v>
       </c>
       <c r="AN6">
         <f t="shared" si="0"/>
-        <v>29141910.279305201</v>
+        <v>24957118.881814901</v>
       </c>
       <c r="AO6">
         <f t="shared" si="0"/>
-        <v>29149775.533498801</v>
+        <v>24962002.1654278</v>
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>29157640.787692301</v>
+        <v>24966885.4490407</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="0"/>
-        <v>29093220.610488001</v>
+        <v>24927153.963449299</v>
       </c>
       <c r="AR6">
         <f t="shared" si="0"/>
-        <v>29028800.433283702</v>
+        <v>24887422.477857899</v>
       </c>
       <c r="AS6">
         <f t="shared" si="0"/>
-        <v>28706699.547262199</v>
+        <v>24688765.049900901</v>
       </c>
       <c r="AT6">
         <f t="shared" si="0"/>
-        <v>28384598.661240701</v>
+        <v>24490107.621943898</v>
       </c>
       <c r="AU6">
         <f t="shared" si="0"/>
-        <v>28062497.775219198</v>
+        <v>24291450.1939869</v>
       </c>
       <c r="AV6">
         <f t="shared" si="0"/>
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
       <c r="BC6" s="9" t="s">
         <v>12</v>
@@ -5565,40 +5565,40 @@
         <v>15</v>
       </c>
       <c r="BE6" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BF6" s="9">
-        <v>28973369.118014898</v>
+        <v>24853180.180395499</v>
       </c>
       <c r="BG6" s="9">
-        <v>29029549.505111702</v>
+        <v>24887826.414202001</v>
       </c>
       <c r="BH6" s="9">
-        <v>29141910.279305201</v>
+        <v>24957118.881814901</v>
       </c>
       <c r="BI6" s="9">
-        <v>29149775.533498801</v>
+        <v>24962002.1654278</v>
       </c>
       <c r="BJ6" s="9">
-        <v>29157640.787692301</v>
+        <v>24966885.4490407</v>
       </c>
       <c r="BK6" s="9">
-        <v>29093220.610488001</v>
+        <v>24927153.963449299</v>
       </c>
       <c r="BL6" s="9">
-        <v>29028800.433283702</v>
+        <v>24887422.477857899</v>
       </c>
       <c r="BM6" s="9">
-        <v>28706699.547262199</v>
+        <v>24688765.049900901</v>
       </c>
       <c r="BN6" s="9">
-        <v>28384598.661240701</v>
+        <v>24490107.621943898</v>
       </c>
       <c r="BO6" s="9">
-        <v>28062497.775219198</v>
+        <v>24291450.1939869</v>
       </c>
       <c r="BP6" s="9">
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.25">
@@ -5610,15 +5610,15 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C17" si="3">X64</f>
-        <v>22.062118046998901</v>
+        <v>18.9284254167322</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>25.430626613748601</v>
+        <v>21.776060984555201</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>28.908585802204698</v>
+        <v>24.802300678914499</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -5628,15 +5628,15 @@
       </c>
       <c r="J7">
         <f>AL$19/1000000</f>
-        <v>22.062957401262</v>
+        <v>18.925977948671697</v>
       </c>
       <c r="K7">
         <f>AL$20/1000000</f>
-        <v>25.512129051831799</v>
+        <v>21.848577676203799</v>
       </c>
       <c r="L7">
         <f>AL$21/1000000</f>
-        <v>28.9593240212407</v>
+        <v>24.844518621943898</v>
       </c>
       <c r="BC7" s="9" t="s">
         <v>16</v>
@@ -5645,40 +5645,40 @@
         <v>13</v>
       </c>
       <c r="BE7" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BF7" s="9">
-        <v>22073842.351261999</v>
+        <v>18932690.656471699</v>
       </c>
       <c r="BG7" s="9">
-        <v>22124140.475171998</v>
+        <v>18963709.3206545</v>
       </c>
       <c r="BH7" s="9">
-        <v>22235914.0838608</v>
+        <v>19032639.685504999</v>
       </c>
       <c r="BI7" s="9">
-        <v>22291202.501457099</v>
+        <v>19066759.1964176</v>
       </c>
       <c r="BJ7" s="9">
-        <v>22356863.509939801</v>
+        <v>19107279.2685325</v>
       </c>
       <c r="BK7" s="9">
-        <v>22352509.529939801</v>
+        <v>19104594.0665325</v>
       </c>
       <c r="BL7" s="9">
-        <v>22348155.5499398</v>
+        <v>19101908.864532501</v>
       </c>
       <c r="BM7" s="9">
-        <v>22080749.161564998</v>
+        <v>18936985.248935599</v>
       </c>
       <c r="BN7" s="9">
-        <v>21767075.333608001</v>
+        <v>18743525.944849599</v>
       </c>
       <c r="BO7" s="9">
-        <v>21453401.505651101</v>
+        <v>18550066.640763599</v>
       </c>
       <c r="BP7" s="9">
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.25">
@@ -5690,15 +5690,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>22.0802512311915</v>
+        <v>18.933059698084602</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>25.391581226607901</v>
+        <v>21.725297788979798</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>28.885336047102601</v>
+        <v>24.766529031895498</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5708,15 +5708,15 @@
       </c>
       <c r="J8">
         <f>AM$19/1000000</f>
-        <v>22.1016198889651</v>
+        <v>18.949820959688999</v>
       </c>
       <c r="K8">
         <f>AM$20/1000000</f>
-        <v>25.554264342154397</v>
+        <v>21.874562351558598</v>
       </c>
       <c r="L8">
         <f>AM$21/1000000</f>
-        <v>29.001459311563302</v>
+        <v>24.870503297298701</v>
       </c>
       <c r="BC8" s="9" t="s">
         <v>16</v>
@@ -5725,40 +5725,40 @@
         <v>14</v>
       </c>
       <c r="BE8" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BF8" s="9">
-        <v>25519151.6002189</v>
+        <v>21852908.455429599</v>
       </c>
       <c r="BG8" s="9">
-        <v>25568309.4389286</v>
+        <v>21883223.9100102</v>
       </c>
       <c r="BH8" s="9">
-        <v>25666625.116347998</v>
+        <v>21943854.819171499</v>
       </c>
       <c r="BI8" s="9">
-        <v>25669153.233767301</v>
+        <v>21945443.976332799</v>
       </c>
       <c r="BJ8" s="9">
-        <v>25671681.3511867</v>
+        <v>21947033.133494101</v>
       </c>
       <c r="BK8" s="9">
-        <v>25608946.585595299</v>
+        <v>21908341.2726769</v>
       </c>
       <c r="BL8" s="9">
-        <v>25546211.820003901</v>
+        <v>21869649.411859699</v>
       </c>
       <c r="BM8" s="9">
-        <v>25232537.9920469</v>
+        <v>21676190.107773699</v>
       </c>
       <c r="BN8" s="9">
-        <v>24918864.1640899</v>
+        <v>21482730.803687699</v>
       </c>
       <c r="BO8" s="9">
-        <v>24605190.336132899</v>
+        <v>21289271.499601599</v>
       </c>
       <c r="BP8" s="9">
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.25">
@@ -5770,15 +5770,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>22.125044752723401</v>
+        <v>18.9476267076822</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>25.3306436858749</v>
+        <v>21.640051438603201</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>28.855989770446502</v>
+        <v>24.711265778631798</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -5788,15 +5788,15 @@
       </c>
       <c r="J9">
         <f>AN$19/1000000</f>
-        <v>22.187536528305198</v>
+        <v>19.002805428616099</v>
       </c>
       <c r="K9">
         <f>AN$20/1000000</f>
-        <v>25.638534922799597</v>
+        <v>21.926531702268299</v>
       </c>
       <c r="L9">
         <f>AN$21/1000000</f>
-        <v>29.085729892208402</v>
+        <v>24.922472648008398</v>
       </c>
       <c r="AI9" t="s">
         <v>16</v>
@@ -5806,51 +5806,51 @@
       </c>
       <c r="AK9">
         <f>BE7</f>
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="AL9">
         <f t="shared" ref="AL9:AV11" si="4">BF7</f>
-        <v>22073842.351261999</v>
+        <v>18932690.656471699</v>
       </c>
       <c r="AM9">
         <f t="shared" si="4"/>
-        <v>22124140.475171998</v>
+        <v>18963709.3206545</v>
       </c>
       <c r="AN9">
         <f t="shared" si="4"/>
-        <v>22235914.0838608</v>
+        <v>19032639.685504999</v>
       </c>
       <c r="AO9">
         <f t="shared" si="4"/>
-        <v>22291202.501457099</v>
+        <v>19066759.1964176</v>
       </c>
       <c r="AP9">
         <f t="shared" si="4"/>
-        <v>22356863.509939801</v>
+        <v>19107279.2685325</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="4"/>
-        <v>22352509.529939801</v>
+        <v>19104594.0665325</v>
       </c>
       <c r="AR9">
         <f t="shared" si="4"/>
-        <v>22348155.5499398</v>
+        <v>19101908.864532501</v>
       </c>
       <c r="AS9">
         <f t="shared" si="4"/>
-        <v>22080749.161564998</v>
+        <v>18936985.248935599</v>
       </c>
       <c r="AT9">
         <f t="shared" si="4"/>
-        <v>21767075.333608001</v>
+        <v>18743525.944849599</v>
       </c>
       <c r="AU9">
         <f t="shared" si="4"/>
-        <v>21453401.505651101</v>
+        <v>18550066.640763599</v>
       </c>
       <c r="AV9">
         <f t="shared" si="4"/>
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
       <c r="BC9" s="9" t="s">
         <v>16</v>
@@ -5859,40 +5859,40 @@
         <v>15</v>
       </c>
       <c r="BE9" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BF9" s="9">
-        <v>28966346.569627799</v>
+        <v>24848849.401169699</v>
       </c>
       <c r="BG9" s="9">
-        <v>29015504.4083375</v>
+        <v>24879164.8557503</v>
       </c>
       <c r="BH9" s="9">
-        <v>29113820.085756801</v>
+        <v>24939795.764911599</v>
       </c>
       <c r="BI9" s="9">
-        <v>29116348.2031762</v>
+        <v>24941384.922072899</v>
       </c>
       <c r="BJ9" s="9">
-        <v>29118876.320595499</v>
+        <v>24942974.079234201</v>
       </c>
       <c r="BK9" s="9">
-        <v>29056141.555004202</v>
+        <v>24904282.218417</v>
       </c>
       <c r="BL9" s="9">
-        <v>28993406.7894128</v>
+        <v>24865590.357599799</v>
       </c>
       <c r="BM9" s="9">
-        <v>28679732.9614558</v>
+        <v>24672131.053513799</v>
       </c>
       <c r="BN9" s="9">
-        <v>28366059.133498799</v>
+        <v>24478671.749427799</v>
       </c>
       <c r="BO9" s="9">
-        <v>28052385.305541798</v>
+        <v>24285212.445341699</v>
       </c>
       <c r="BP9" s="9">
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.25">
@@ -5904,15 +5904,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>21.9723253035082</v>
+        <v>18.806695788443701</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>25.082779225556102</v>
+        <v>21.428429479233298</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>28.596435432257699</v>
+        <v>24.4894344775945</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -5922,15 +5922,15 @@
       </c>
       <c r="J10">
         <f>AO$19/1000000</f>
-        <v>22.224673687057102</v>
+        <v>19.025727407777602</v>
       </c>
       <c r="K10">
         <f>AO$20/1000000</f>
-        <v>25.635725903444701</v>
+        <v>21.924826732978001</v>
       </c>
       <c r="L10">
         <f>AO$21/1000000</f>
-        <v>29.082920872853599</v>
+        <v>24.9207676787181</v>
       </c>
       <c r="AI10" t="s">
         <v>16</v>
@@ -5940,51 +5940,51 @@
       </c>
       <c r="AK10">
         <f t="shared" ref="AK10:AK11" si="5">BE8</f>
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="AL10">
         <f t="shared" si="4"/>
-        <v>25519151.6002189</v>
+        <v>21852908.455429599</v>
       </c>
       <c r="AM10">
         <f t="shared" si="4"/>
-        <v>25568309.4389286</v>
+        <v>21883223.9100102</v>
       </c>
       <c r="AN10">
         <f t="shared" si="4"/>
-        <v>25666625.116347998</v>
+        <v>21943854.819171499</v>
       </c>
       <c r="AO10">
         <f t="shared" si="4"/>
-        <v>25669153.233767301</v>
+        <v>21945443.976332799</v>
       </c>
       <c r="AP10">
         <f t="shared" si="4"/>
-        <v>25671681.3511867</v>
+        <v>21947033.133494101</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="4"/>
-        <v>25608946.585595299</v>
+        <v>21908341.2726769</v>
       </c>
       <c r="AR10">
         <f t="shared" si="4"/>
-        <v>25546211.820003901</v>
+        <v>21869649.411859699</v>
       </c>
       <c r="AS10">
         <f t="shared" si="4"/>
-        <v>25232537.9920469</v>
+        <v>21676190.107773699</v>
       </c>
       <c r="AT10">
         <f t="shared" si="4"/>
-        <v>24918864.1640899</v>
+        <v>21482730.803687699</v>
       </c>
       <c r="AU10">
         <f t="shared" si="4"/>
-        <v>24605190.336132899</v>
+        <v>21289271.499601599</v>
       </c>
       <c r="AV10">
         <f t="shared" si="4"/>
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
       <c r="BC10" s="9" t="s">
         <v>17</v>
@@ -5993,40 +5993,40 @@
         <v>13</v>
       </c>
       <c r="BE10" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BF10" s="9">
-        <v>22068399.876262002</v>
+        <v>18929334.302571699</v>
       </c>
       <c r="BG10" s="9">
-        <v>22112880.182068601</v>
+        <v>18956765.140171699</v>
       </c>
       <c r="BH10" s="9">
-        <v>22211725.306083001</v>
+        <v>19017722.557060499</v>
       </c>
       <c r="BI10" s="9">
-        <v>22257938.094257101</v>
+        <v>19046243.3020976</v>
       </c>
       <c r="BJ10" s="9">
-        <v>22313323.7099398</v>
+        <v>19080424.276532501</v>
       </c>
       <c r="BK10" s="9">
-        <v>22306792.739939801</v>
+        <v>19076396.473532502</v>
       </c>
       <c r="BL10" s="9">
-        <v>22300261.769939799</v>
+        <v>19072368.670532499</v>
       </c>
       <c r="BM10" s="9">
-        <v>22067265.868661799</v>
+        <v>18928668.250742</v>
       </c>
       <c r="BN10" s="9">
-        <v>21757805.569737099</v>
+        <v>18737808.008591499</v>
       </c>
       <c r="BO10" s="9">
-        <v>21448345.270812299</v>
+        <v>18546947.766440999</v>
       </c>
       <c r="BP10" s="9">
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.25">
@@ -6038,15 +6038,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>21.8272251647251</v>
+        <v>18.721007544644198</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>24.864527389753498</v>
+        <v>21.301364690788198</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>28.366493718584998</v>
+        <v>24.352160347481998</v>
       </c>
       <c r="H11" t="s">
         <v>5</v>
@@ -6056,15 +6056,15 @@
       </c>
       <c r="J11">
         <f>AP$19/1000000</f>
-        <v>22.2697839099398</v>
+        <v>19.0535692845325</v>
       </c>
       <c r="K11">
         <f>AP$20/1000000</f>
-        <v>25.632916884089898</v>
+        <v>21.9231217636877</v>
       </c>
       <c r="L11">
         <f>AP$21/1000000</f>
-        <v>29.080111853498803</v>
+        <v>24.919062709427799</v>
       </c>
       <c r="AI11" t="s">
         <v>16</v>
@@ -6074,51 +6074,51 @@
       </c>
       <c r="AK11">
         <f t="shared" si="5"/>
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="AL11">
         <f t="shared" si="4"/>
-        <v>28966346.569627799</v>
+        <v>24848849.401169699</v>
       </c>
       <c r="AM11">
         <f t="shared" si="4"/>
-        <v>29015504.4083375</v>
+        <v>24879164.8557503</v>
       </c>
       <c r="AN11">
         <f t="shared" si="4"/>
-        <v>29113820.085756801</v>
+        <v>24939795.764911599</v>
       </c>
       <c r="AO11">
         <f t="shared" si="4"/>
-        <v>29116348.2031762</v>
+        <v>24941384.922072899</v>
       </c>
       <c r="AP11">
         <f t="shared" si="4"/>
-        <v>29118876.320595499</v>
+        <v>24942974.079234201</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="4"/>
-        <v>29056141.555004202</v>
+        <v>24904282.218417</v>
       </c>
       <c r="AR11">
         <f t="shared" si="4"/>
-        <v>28993406.7894128</v>
+        <v>24865590.357599799</v>
       </c>
       <c r="AS11">
         <f t="shared" si="4"/>
-        <v>28679732.9614558</v>
+        <v>24672131.053513799</v>
       </c>
       <c r="AT11">
         <f t="shared" si="4"/>
-        <v>28366059.133498799</v>
+        <v>24478671.749427799</v>
       </c>
       <c r="AU11">
         <f t="shared" si="4"/>
-        <v>28052385.305541798</v>
+        <v>24285212.445341699</v>
       </c>
       <c r="AV11">
         <f t="shared" si="4"/>
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
       <c r="BC11" s="9" t="s">
         <v>17</v>
@@ -6127,40 +6127,40 @@
         <v>14</v>
       </c>
       <c r="BE11" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BF11" s="9">
-        <v>25515640.3260254</v>
+        <v>21850743.0658167</v>
       </c>
       <c r="BG11" s="9">
-        <v>25561286.890541501</v>
+        <v>21878893.1307844</v>
       </c>
       <c r="BH11" s="9">
-        <v>25652580.0195738</v>
+        <v>21935193.260719899</v>
       </c>
       <c r="BI11" s="9">
-        <v>25652439.568606</v>
+        <v>21935135.3546554</v>
       </c>
       <c r="BJ11" s="9">
-        <v>25652299.117638301</v>
+        <v>21935077.448590901</v>
       </c>
       <c r="BK11" s="9">
-        <v>25590407.057853401</v>
+        <v>21896905.400160801</v>
       </c>
       <c r="BL11" s="9">
-        <v>25528514.9980684</v>
+        <v>21858733.351730701</v>
       </c>
       <c r="BM11" s="9">
-        <v>25219054.6991437</v>
+        <v>21667873.1095801</v>
       </c>
       <c r="BN11" s="9">
-        <v>24909594.4002189</v>
+        <v>21477012.867429599</v>
       </c>
       <c r="BO11" s="9">
-        <v>24600134.101294201</v>
+        <v>21286152.625279099</v>
       </c>
       <c r="BP11" s="9">
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.25">
@@ -6172,15 +6172,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>21.626934833045098</v>
+        <v>18.687180133691601</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>24.6208939646543</v>
+        <v>21.259552732962899</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>28.1357966286572</v>
+        <v>24.321031509993198</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -6190,15 +6190,15 @@
       </c>
       <c r="J12">
         <f>AQ$19/1000000</f>
-        <v>22.261075949939798</v>
+        <v>19.0481988805325</v>
       </c>
       <c r="K12">
         <f>AQ$20/1000000</f>
-        <v>25.571867530111398</v>
+        <v>21.885469527644602</v>
       </c>
       <c r="L12">
         <f>AQ$21/1000000</f>
-        <v>29.019062499520302</v>
+        <v>24.8814104733848</v>
       </c>
       <c r="BC12" s="9" t="s">
         <v>17</v>
@@ -6207,40 +6207,40 @@
         <v>15</v>
       </c>
       <c r="BE12" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BF12" s="9">
-        <v>28962835.2954343</v>
+        <v>24846684.0115568</v>
       </c>
       <c r="BG12" s="9">
-        <v>29008481.859950401</v>
+        <v>24874834.0765245</v>
       </c>
       <c r="BH12" s="9">
-        <v>29099774.988982599</v>
+        <v>24931134.206459999</v>
       </c>
       <c r="BI12" s="9">
-        <v>29099634.5380149</v>
+        <v>24931076.3003955</v>
       </c>
       <c r="BJ12" s="9">
-        <v>29099494.087047201</v>
+        <v>24931018.394331001</v>
       </c>
       <c r="BK12" s="9">
-        <v>29037602.0272622</v>
+        <v>24892846.345900901</v>
       </c>
       <c r="BL12" s="9">
-        <v>28975709.967477299</v>
+        <v>24854674.297470801</v>
       </c>
       <c r="BM12" s="9">
-        <v>28666249.668552499</v>
+        <v>24663814.0553202</v>
       </c>
       <c r="BN12" s="9">
-        <v>28356789.3696278</v>
+        <v>24472953.813169699</v>
       </c>
       <c r="BO12" s="9">
-        <v>28047329.0707031</v>
+        <v>24282093.571019199</v>
       </c>
       <c r="BP12" s="9">
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.25">
@@ -6252,15 +6252,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>21.4266445013651</v>
+        <v>18.650850873964899</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>24.3903884707379</v>
+        <v>21.215238926363401</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>27.9182274699122</v>
+        <v>24.287400823730202</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -6270,15 +6270,15 @@
       </c>
       <c r="J13">
         <f>AR$19/1000000</f>
-        <v>22.252367989939803</v>
+        <v>19.042828476532499</v>
       </c>
       <c r="K13">
         <f>AR$20/1000000</f>
-        <v>25.510818176132897</v>
+        <v>21.847817291601597</v>
       </c>
       <c r="L13">
         <f>AR$21/1000000</f>
-        <v>28.958013145541798</v>
+        <v>24.843758237341699</v>
       </c>
       <c r="BC13" s="9" t="s">
         <v>18</v>
@@ -6287,40 +6287,40 @@
         <v>13</v>
       </c>
       <c r="BE13" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BF13" s="9">
-        <v>22062957.401262</v>
+        <v>18925977.948671699</v>
       </c>
       <c r="BG13" s="9">
-        <v>22101619.8889651</v>
+        <v>18949820.959688999</v>
       </c>
       <c r="BH13" s="9">
-        <v>22187536.528305199</v>
+        <v>19002805.428616099</v>
       </c>
       <c r="BI13" s="9">
-        <v>22224673.6870571</v>
+        <v>19025727.4077776</v>
       </c>
       <c r="BJ13" s="9">
-        <v>22269783.909939799</v>
+        <v>19053569.284532499</v>
       </c>
       <c r="BK13" s="9">
-        <v>22261075.949939799</v>
+        <v>19048198.880532499</v>
       </c>
       <c r="BL13" s="9">
-        <v>22252367.989939801</v>
+        <v>19042828.4765325</v>
       </c>
       <c r="BM13" s="9">
-        <v>22053782.575758599</v>
+        <v>18920351.252548501</v>
       </c>
       <c r="BN13" s="9">
-        <v>21748535.8058661</v>
+        <v>18732090.072333399</v>
       </c>
       <c r="BO13" s="9">
-        <v>21443289.035973601</v>
+        <v>18543828.892118402</v>
       </c>
       <c r="BP13" s="9">
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
@@ -6332,15 +6332,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>21.1549689011471</v>
+        <v>18.431676843718101</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>24.069133875134501</v>
+        <v>20.956142161753199</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>27.6616545501657</v>
+        <v>24.0817196608023</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -6350,15 +6350,15 @@
       </c>
       <c r="J14">
         <f>AS$19/1000000</f>
-        <v>22.0537825757586</v>
+        <v>18.9203512525485</v>
       </c>
       <c r="K14">
         <f>AS$20/1000000</f>
-        <v>25.205571406240399</v>
+        <v>21.6595561113866</v>
       </c>
       <c r="L14">
         <f>AS$21/1000000</f>
-        <v>28.6527663756493</v>
+        <v>24.655497057126702</v>
       </c>
       <c r="AI14" t="s">
         <v>17</v>
@@ -6368,51 +6368,51 @@
       </c>
       <c r="AK14">
         <f>BE10</f>
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="AL14">
         <f t="shared" ref="AL14:AV16" si="6">BF10</f>
-        <v>22068399.876262002</v>
+        <v>18929334.302571699</v>
       </c>
       <c r="AM14">
         <f t="shared" si="6"/>
-        <v>22112880.182068601</v>
+        <v>18956765.140171699</v>
       </c>
       <c r="AN14">
         <f t="shared" si="6"/>
-        <v>22211725.306083001</v>
+        <v>19017722.557060499</v>
       </c>
       <c r="AO14">
         <f t="shared" si="6"/>
-        <v>22257938.094257101</v>
+        <v>19046243.3020976</v>
       </c>
       <c r="AP14">
         <f t="shared" si="6"/>
-        <v>22313323.7099398</v>
+        <v>19080424.276532501</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="6"/>
-        <v>22306792.739939801</v>
+        <v>19076396.473532502</v>
       </c>
       <c r="AR14">
         <f t="shared" si="6"/>
-        <v>22300261.769939799</v>
+        <v>19072368.670532499</v>
       </c>
       <c r="AS14">
         <f t="shared" si="6"/>
-        <v>22067265.868661799</v>
+        <v>18928668.250742</v>
       </c>
       <c r="AT14">
         <f t="shared" si="6"/>
-        <v>21757805.569737099</v>
+        <v>18737808.008591499</v>
       </c>
       <c r="AU14">
         <f t="shared" si="6"/>
-        <v>21448345.270812299</v>
+        <v>18546947.766440999</v>
       </c>
       <c r="AV14">
         <f t="shared" si="6"/>
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
       <c r="BC14" s="9" t="s">
         <v>18</v>
@@ -6421,40 +6421,40 @@
         <v>14</v>
       </c>
       <c r="BE14" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BF14" s="9">
-        <v>25512129.0518318</v>
+        <v>21848577.676203799</v>
       </c>
       <c r="BG14" s="9">
-        <v>25554264.342154399</v>
+        <v>21874562.3515586</v>
       </c>
       <c r="BH14" s="9">
-        <v>25638534.922799598</v>
+        <v>21926531.702268299</v>
       </c>
       <c r="BI14" s="9">
-        <v>25635725.9034447</v>
+        <v>21924826.732978001</v>
       </c>
       <c r="BJ14" s="9">
-        <v>25632916.884089898</v>
+        <v>21923121.7636877</v>
       </c>
       <c r="BK14" s="9">
-        <v>25571867.530111399</v>
+        <v>21885469.527644601</v>
       </c>
       <c r="BL14" s="9">
-        <v>25510818.176132899</v>
+        <v>21847817.291601598</v>
       </c>
       <c r="BM14" s="9">
-        <v>25205571.4062404</v>
+        <v>21659556.111386601</v>
       </c>
       <c r="BN14" s="9">
-        <v>24900324.636348002</v>
+        <v>21471294.931171499</v>
       </c>
       <c r="BO14" s="9">
-        <v>24595077.866455499</v>
+        <v>21283033.750956502</v>
       </c>
       <c r="BP14" s="9">
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
@@ -6466,15 +6466,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="3"/>
-        <v>20.821996041665301</v>
+        <v>18.149956594116599</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>23.687818035660101</v>
+        <v>20.634499177788001</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>27.345020386548299</v>
+        <v>23.8134922785196</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -6484,15 +6484,15 @@
       </c>
       <c r="J15">
         <f>AT$19/1000000</f>
-        <v>21.748535805866101</v>
+        <v>18.732090072333399</v>
       </c>
       <c r="K15">
         <f>AT$20/1000000</f>
-        <v>24.900324636348003</v>
+        <v>21.471294931171499</v>
       </c>
       <c r="L15">
         <f>AT$21/1000000</f>
-        <v>28.347519605756801</v>
+        <v>24.467235876911598</v>
       </c>
       <c r="AI15" t="s">
         <v>17</v>
@@ -6502,51 +6502,51 @@
       </c>
       <c r="AK15">
         <f t="shared" ref="AK15:AK16" si="7">BE11</f>
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="AL15">
         <f t="shared" si="6"/>
-        <v>25515640.3260254</v>
+        <v>21850743.0658167</v>
       </c>
       <c r="AM15">
         <f t="shared" si="6"/>
-        <v>25561286.890541501</v>
+        <v>21878893.1307844</v>
       </c>
       <c r="AN15">
         <f t="shared" si="6"/>
-        <v>25652580.0195738</v>
+        <v>21935193.260719899</v>
       </c>
       <c r="AO15">
         <f t="shared" si="6"/>
-        <v>25652439.568606</v>
+        <v>21935135.3546554</v>
       </c>
       <c r="AP15">
         <f t="shared" si="6"/>
-        <v>25652299.117638301</v>
+        <v>21935077.448590901</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="6"/>
-        <v>25590407.057853401</v>
+        <v>21896905.400160801</v>
       </c>
       <c r="AR15">
         <f t="shared" si="6"/>
-        <v>25528514.9980684</v>
+        <v>21858733.351730701</v>
       </c>
       <c r="AS15">
         <f t="shared" si="6"/>
-        <v>25219054.6991437</v>
+        <v>21667873.1095801</v>
       </c>
       <c r="AT15">
         <f t="shared" si="6"/>
-        <v>24909594.4002189</v>
+        <v>21477012.867429599</v>
       </c>
       <c r="AU15">
         <f t="shared" si="6"/>
-        <v>24600134.101294201</v>
+        <v>21286152.625279099</v>
       </c>
       <c r="AV15">
         <f t="shared" si="6"/>
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
       <c r="BC15" s="9" t="s">
         <v>18</v>
@@ -6555,40 +6555,40 @@
         <v>15</v>
       </c>
       <c r="BE15" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BF15" s="9">
-        <v>28959324.0212407</v>
+        <v>24844518.621943898</v>
       </c>
       <c r="BG15" s="9">
-        <v>29001459.311563302</v>
+        <v>24870503.2972987</v>
       </c>
       <c r="BH15" s="9">
-        <v>29085729.892208401</v>
+        <v>24922472.648008399</v>
       </c>
       <c r="BI15" s="9">
-        <v>29082920.872853599</v>
+        <v>24920767.678718101</v>
       </c>
       <c r="BJ15" s="9">
-        <v>29080111.853498802</v>
+        <v>24919062.7094278</v>
       </c>
       <c r="BK15" s="9">
-        <v>29019062.499520302</v>
+        <v>24881410.473384801</v>
       </c>
       <c r="BL15" s="9">
-        <v>28958013.145541798</v>
+        <v>24843758.237341698</v>
       </c>
       <c r="BM15" s="9">
-        <v>28652766.375649299</v>
+        <v>24655497.057126701</v>
       </c>
       <c r="BN15" s="9">
-        <v>28347519.605756801</v>
+        <v>24467235.876911599</v>
       </c>
       <c r="BO15" s="9">
-        <v>28042272.835864399</v>
+        <v>24278974.696696602</v>
       </c>
       <c r="BP15" s="9">
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
@@ -6600,15 +6600,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="3"/>
-        <v>20.413285117667499</v>
+        <v>17.805690125160101</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>23.230764131669599</v>
+        <v>20.250309974468102</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>26.952648158414799</v>
+        <v>23.482718676881998</v>
       </c>
       <c r="H16" t="s">
         <v>10</v>
@@ -6618,15 +6618,15 @@
       </c>
       <c r="J16">
         <f>AU$19/1000000</f>
-        <v>21.443289035973603</v>
+        <v>18.543828892118402</v>
       </c>
       <c r="K16">
         <f>AU$20/1000000</f>
-        <v>24.595077866455497</v>
+        <v>21.283033750956502</v>
       </c>
       <c r="L16">
         <f>AU$21/1000000</f>
-        <v>28.042272835864399</v>
+        <v>24.278974696696601</v>
       </c>
       <c r="AI16" t="s">
         <v>17</v>
@@ -6636,51 +6636,51 @@
       </c>
       <c r="AK16">
         <f t="shared" si="7"/>
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="AL16">
         <f t="shared" si="6"/>
-        <v>28962835.2954343</v>
+        <v>24846684.0115568</v>
       </c>
       <c r="AM16">
         <f t="shared" si="6"/>
-        <v>29008481.859950401</v>
+        <v>24874834.0765245</v>
       </c>
       <c r="AN16">
         <f t="shared" si="6"/>
-        <v>29099774.988982599</v>
+        <v>24931134.206459999</v>
       </c>
       <c r="AO16">
         <f t="shared" si="6"/>
-        <v>29099634.5380149</v>
+        <v>24931076.3003955</v>
       </c>
       <c r="AP16">
         <f t="shared" si="6"/>
-        <v>29099494.087047201</v>
+        <v>24931018.394331001</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="6"/>
-        <v>29037602.0272622</v>
+        <v>24892846.345900901</v>
       </c>
       <c r="AR16">
         <f t="shared" si="6"/>
-        <v>28975709.967477299</v>
+        <v>24854674.297470801</v>
       </c>
       <c r="AS16">
         <f t="shared" si="6"/>
-        <v>28666249.668552499</v>
+        <v>24663814.0553202</v>
       </c>
       <c r="AT16">
         <f t="shared" si="6"/>
-        <v>28356789.3696278</v>
+        <v>24472953.813169699</v>
       </c>
       <c r="AU16">
         <f t="shared" si="6"/>
-        <v>28047329.0707031</v>
+        <v>24282093.571019199</v>
       </c>
       <c r="AV16">
         <f t="shared" si="6"/>
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -6692,15 +6692,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="3"/>
-        <v>19.822857763708701</v>
+        <v>17.310009352864103</v>
       </c>
       <c r="D17">
         <f>Y74</f>
-        <v>22.582325201719701</v>
+        <v>19.706721920935703</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>26.381827239493298</v>
+        <v>23.003229345368499</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -6710,15 +6710,15 @@
       </c>
       <c r="J17">
         <f>AV$19/1000000</f>
-        <v>21.0769929121027</v>
+        <v>18.3179154758603</v>
       </c>
       <c r="K17">
         <f>AV$20/1000000</f>
-        <v>24.228781742584502</v>
+        <v>21.0571203346984</v>
       </c>
       <c r="L17">
         <f>AV$21/1000000</f>
-        <v>27.6759767119934</v>
+        <v>24.053061280438502</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
@@ -6730,51 +6730,51 @@
       </c>
       <c r="AK19">
         <f>BE13</f>
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="AL19">
         <f t="shared" ref="AL19:AV21" si="8">BF13</f>
-        <v>22062957.401262</v>
+        <v>18925977.948671699</v>
       </c>
       <c r="AM19">
         <f t="shared" si="8"/>
-        <v>22101619.8889651</v>
+        <v>18949820.959688999</v>
       </c>
       <c r="AN19">
         <f t="shared" si="8"/>
-        <v>22187536.528305199</v>
+        <v>19002805.428616099</v>
       </c>
       <c r="AO19">
         <f t="shared" si="8"/>
-        <v>22224673.6870571</v>
+        <v>19025727.4077776</v>
       </c>
       <c r="AP19">
         <f t="shared" si="8"/>
-        <v>22269783.909939799</v>
+        <v>19053569.284532499</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="8"/>
-        <v>22261075.949939799</v>
+        <v>19048198.880532499</v>
       </c>
       <c r="AR19">
         <f t="shared" si="8"/>
-        <v>22252367.989939801</v>
+        <v>19042828.4765325</v>
       </c>
       <c r="AS19">
         <f t="shared" si="8"/>
-        <v>22053782.575758599</v>
+        <v>18920351.252548501</v>
       </c>
       <c r="AT19">
         <f t="shared" si="8"/>
-        <v>21748535.8058661</v>
+        <v>18732090.072333399</v>
       </c>
       <c r="AU19">
         <f t="shared" si="8"/>
-        <v>21443289.035973601</v>
+        <v>18543828.892118402</v>
       </c>
       <c r="AV19">
         <f t="shared" si="8"/>
-        <v>21076992.912102699</v>
+        <v>18317915.475860301</v>
       </c>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
@@ -6786,51 +6786,51 @@
       </c>
       <c r="AK20">
         <f t="shared" ref="AK20:AK21" si="9">BE14</f>
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="AL20">
         <f t="shared" si="8"/>
-        <v>25512129.0518318</v>
+        <v>21848577.676203799</v>
       </c>
       <c r="AM20">
         <f t="shared" si="8"/>
-        <v>25554264.342154399</v>
+        <v>21874562.3515586</v>
       </c>
       <c r="AN20">
         <f t="shared" si="8"/>
-        <v>25638534.922799598</v>
+        <v>21926531.702268299</v>
       </c>
       <c r="AO20">
         <f t="shared" si="8"/>
-        <v>25635725.9034447</v>
+        <v>21924826.732978001</v>
       </c>
       <c r="AP20">
         <f t="shared" si="8"/>
-        <v>25632916.884089898</v>
+        <v>21923121.7636877</v>
       </c>
       <c r="AQ20">
         <f t="shared" si="8"/>
-        <v>25571867.530111399</v>
+        <v>21885469.527644601</v>
       </c>
       <c r="AR20">
         <f t="shared" si="8"/>
-        <v>25510818.176132899</v>
+        <v>21847817.291601598</v>
       </c>
       <c r="AS20">
         <f t="shared" si="8"/>
-        <v>25205571.4062404</v>
+        <v>21659556.111386601</v>
       </c>
       <c r="AT20">
         <f t="shared" si="8"/>
-        <v>24900324.636348002</v>
+        <v>21471294.931171499</v>
       </c>
       <c r="AU20">
         <f t="shared" si="8"/>
-        <v>24595077.866455499</v>
+        <v>21283033.750956502</v>
       </c>
       <c r="AV20">
         <f t="shared" si="8"/>
-        <v>24228781.7425845</v>
+        <v>21057120.334698401</v>
       </c>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
@@ -6842,51 +6842,51 @@
       </c>
       <c r="AK21">
         <f t="shared" si="9"/>
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="AL21">
         <f t="shared" si="8"/>
-        <v>28959324.0212407</v>
+        <v>24844518.621943898</v>
       </c>
       <c r="AM21">
         <f t="shared" si="8"/>
-        <v>29001459.311563302</v>
+        <v>24870503.2972987</v>
       </c>
       <c r="AN21">
         <f t="shared" si="8"/>
-        <v>29085729.892208401</v>
+        <v>24922472.648008399</v>
       </c>
       <c r="AO21">
         <f t="shared" si="8"/>
-        <v>29082920.872853599</v>
+        <v>24920767.678718101</v>
       </c>
       <c r="AP21">
         <f t="shared" si="8"/>
-        <v>29080111.853498802</v>
+        <v>24919062.7094278</v>
       </c>
       <c r="AQ21">
         <f t="shared" si="8"/>
-        <v>29019062.499520302</v>
+        <v>24881410.473384801</v>
       </c>
       <c r="AR21">
         <f t="shared" si="8"/>
-        <v>28958013.145541798</v>
+        <v>24843758.237341698</v>
       </c>
       <c r="AS21">
         <f t="shared" si="8"/>
-        <v>28652766.375649299</v>
+        <v>24655497.057126701</v>
       </c>
       <c r="AT21">
         <f t="shared" si="8"/>
-        <v>28347519.605756801</v>
+        <v>24467235.876911599</v>
       </c>
       <c r="AU21">
         <f t="shared" si="8"/>
-        <v>28042272.835864399</v>
+        <v>24278974.696696602</v>
       </c>
       <c r="AV21">
         <f t="shared" si="8"/>
-        <v>27675976.7119934</v>
+        <v>24053061.280438501</v>
       </c>
     </row>
     <row r="40" spans="22:76" x14ac:dyDescent="0.25">
@@ -6898,20 +6898,20 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="45" spans="22:76" x14ac:dyDescent="0.25">
-      <c r="BK45" s="20"/>
-      <c r="BL45" s="20"/>
-      <c r="BM45" s="20"/>
-      <c r="BN45" s="20"/>
-      <c r="BO45" s="20"/>
-      <c r="BP45" s="20"/>
-      <c r="BQ45" s="20"/>
-      <c r="BR45" s="20"/>
-      <c r="BS45" s="20"/>
-      <c r="BT45" s="20"/>
-      <c r="BU45" s="20"/>
-      <c r="BV45" s="20"/>
-      <c r="BW45" s="20"/>
-      <c r="BX45" s="20"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="11"/>
+      <c r="BM45" s="11"/>
+      <c r="BN45" s="11"/>
+      <c r="BO45" s="11"/>
+      <c r="BP45" s="11"/>
+      <c r="BQ45" s="11"/>
+      <c r="BR45" s="11"/>
+      <c r="BS45" s="11"/>
+      <c r="BT45" s="11"/>
+      <c r="BU45" s="11"/>
+      <c r="BV45" s="11"/>
+      <c r="BW45" s="11"/>
+      <c r="BX45" s="11"/>
     </row>
     <row r="46" spans="22:76" x14ac:dyDescent="0.25">
       <c r="BK46" s="7"/>
@@ -7136,56 +7136,56 @@
       <c r="BX58" s="7"/>
     </row>
     <row r="59" spans="1:76" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="22"/>
-      <c r="AH59" s="22"/>
-      <c r="AI59" s="22"/>
-      <c r="AJ59" s="22"/>
-      <c r="AK59" s="22"/>
-      <c r="AL59" s="22"/>
-      <c r="AM59" s="22"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="22"/>
-      <c r="AP59" s="22"/>
-      <c r="AQ59" s="22"/>
-      <c r="AR59" s="22"/>
-      <c r="AS59" s="22"/>
-      <c r="AT59" s="22"/>
-      <c r="AU59" s="22"/>
-      <c r="AV59" s="22"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="13"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="13"/>
+      <c r="AM59" s="13"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="13"/>
+      <c r="AP59" s="13"/>
+      <c r="AQ59" s="13"/>
+      <c r="AR59" s="13"/>
+      <c r="AS59" s="13"/>
+      <c r="AT59" s="13"/>
+      <c r="AU59" s="13"/>
+      <c r="AV59" s="13"/>
       <c r="BK59" s="8"/>
       <c r="BL59" s="8"/>
       <c r="BM59" s="7"/>
@@ -7202,40 +7202,40 @@
       <c r="BX59" s="7"/>
     </row>
     <row r="60" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="26" t="s">
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
       <c r="BK60" s="8"/>
       <c r="BL60" s="8"/>
       <c r="BM60" s="7"/>
@@ -7364,15 +7364,15 @@
       </c>
       <c r="C63">
         <f>$AK78/1000000</f>
-        <v>22.0267892676044</v>
+        <v>18.903673196429899</v>
       </c>
       <c r="D63">
         <f>$AK79/1000000</f>
-        <v>25.469993761509301</v>
+        <v>21.822593000848901</v>
       </c>
       <c r="E63">
         <f>$AK80/1000000</f>
-        <v>28.917188730918099</v>
+        <v>24.818533946589103</v>
       </c>
       <c r="H63" t="s">
         <v>0</v>
@@ -7382,15 +7382,15 @@
       </c>
       <c r="J63">
         <f>$AK83/1000000</f>
-        <v>22.0267892676044</v>
+        <v>18.903673196429899</v>
       </c>
       <c r="K63">
         <f>$AK84/1000000</f>
-        <v>25.469993761509301</v>
+        <v>21.822593000848901</v>
       </c>
       <c r="L63">
         <f>$AK85/1000000</f>
-        <v>28.917188730918099</v>
+        <v>24.818533946589103</v>
       </c>
       <c r="V63" t="s">
         <v>0</v>
@@ -7400,15 +7400,15 @@
       </c>
       <c r="X63">
         <f>J63</f>
-        <v>22.0267892676044</v>
+        <v>18.903673196429899</v>
       </c>
       <c r="Y63">
         <f t="shared" ref="Y63:Z74" si="10">K63</f>
-        <v>25.469993761509301</v>
+        <v>21.822593000848901</v>
       </c>
       <c r="Z63">
         <f t="shared" si="10"/>
-        <v>28.917188730918099</v>
+        <v>24.818533946589103</v>
       </c>
       <c r="BK63" s="8"/>
       <c r="BL63" s="8"/>
@@ -7434,15 +7434,15 @@
       </c>
       <c r="C64">
         <f>$AL78/1000000</f>
-        <v>22.054182806998902</v>
+        <v>18.9138129843322</v>
       </c>
       <c r="D64">
         <f>$AL79/1000000</f>
-        <v>25.415977529877598</v>
+        <v>21.757589141716497</v>
       </c>
       <c r="E64">
         <f>$AL80/1000000</f>
-        <v>28.893936718333798</v>
+        <v>24.783828836075699</v>
       </c>
       <c r="H64" t="s">
         <v>1</v>
@@ -7452,15 +7452,15 @@
       </c>
       <c r="J64">
         <f>$AL83/1000000</f>
-        <v>22.062118046998901</v>
+        <v>18.9284254167322</v>
       </c>
       <c r="K64">
         <f>$AL84/1000000</f>
-        <v>25.430626613748601</v>
+        <v>21.776060984555201</v>
       </c>
       <c r="L64">
         <f>$AL85/1000000</f>
-        <v>28.908585802204698</v>
+        <v>24.802300678914499</v>
       </c>
       <c r="V64" t="s">
         <v>1</v>
@@ -7470,15 +7470,15 @@
       </c>
       <c r="X64">
         <f t="shared" ref="X64:X74" si="11">J64</f>
-        <v>22.062118046998901</v>
+        <v>18.9284254167322</v>
       </c>
       <c r="Y64">
         <f t="shared" si="10"/>
-        <v>25.430626613748601</v>
+        <v>21.776060984555201</v>
       </c>
       <c r="Z64">
         <f t="shared" si="10"/>
-        <v>28.908585802204698</v>
+        <v>24.802300678914499</v>
       </c>
       <c r="BK64" s="8"/>
       <c r="BL64" s="8"/>
@@ -7504,15 +7504,15 @@
       </c>
       <c r="C65">
         <f>$AM78/1000000</f>
-        <v>22.065870850501899</v>
+        <v>18.904760724015702</v>
       </c>
       <c r="D65">
         <f>$AM79/1000000</f>
-        <v>25.364188973704699</v>
+        <v>21.6901629967217</v>
       </c>
       <c r="E65">
         <f>$AM80/1000000</f>
-        <v>28.857943794199301</v>
+        <v>24.731394239637503</v>
       </c>
       <c r="H65" t="s">
         <v>2</v>
@@ -7522,15 +7522,15 @@
       </c>
       <c r="J65">
         <f>$AM83/1000000</f>
-        <v>22.0802512311915</v>
+        <v>18.933059698084602</v>
       </c>
       <c r="K65">
         <f>$AM84/1000000</f>
-        <v>25.391581226607901</v>
+        <v>21.725297788979798</v>
       </c>
       <c r="L65">
         <f>$AM85/1000000</f>
-        <v>28.885336047102601</v>
+        <v>24.766529031895498</v>
       </c>
       <c r="V65" t="s">
         <v>2</v>
@@ -7540,15 +7540,15 @@
       </c>
       <c r="X65">
         <f t="shared" si="11"/>
-        <v>22.0802512311915</v>
+        <v>18.933059698084602</v>
       </c>
       <c r="Y65">
         <f t="shared" si="10"/>
-        <v>25.391581226607901</v>
+        <v>21.725297788979798</v>
       </c>
       <c r="Z65">
         <f t="shared" si="10"/>
-        <v>28.885336047102601</v>
+        <v>24.766529031895498</v>
       </c>
       <c r="BK65" s="8"/>
       <c r="BL65" s="8"/>
@@ -7574,15 +7574,15 @@
       </c>
       <c r="C66">
         <f>$AN78/1000000</f>
-        <v>22.102906654945702</v>
+        <v>18.895143829459897</v>
       </c>
       <c r="D66">
         <f>$AN79/1000000</f>
-        <v>25.2834828394233</v>
+        <v>21.577017427764503</v>
       </c>
       <c r="E66">
         <f>$AN80/1000000</f>
-        <v>28.808828923994898</v>
+        <v>24.648231767793099</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -7592,15 +7592,15 @@
       </c>
       <c r="J66">
         <f>$AN83/1000000</f>
-        <v>22.125044752723401</v>
+        <v>18.9476267076822</v>
       </c>
       <c r="K66">
         <f>$AN84/1000000</f>
-        <v>25.3306436858749</v>
+        <v>21.640051438603201</v>
       </c>
       <c r="L66">
         <f>$AN85/1000000</f>
-        <v>28.855989770446502</v>
+        <v>24.711265778631798</v>
       </c>
       <c r="V66" t="s">
         <v>3</v>
@@ -7610,15 +7610,15 @@
       </c>
       <c r="X66">
         <f t="shared" si="11"/>
-        <v>22.125044752723401</v>
+        <v>18.9476267076822</v>
       </c>
       <c r="Y66">
         <f t="shared" si="10"/>
-        <v>25.3306436858749</v>
+        <v>21.640051438603201</v>
       </c>
       <c r="Z66">
         <f t="shared" si="10"/>
-        <v>28.855989770446502</v>
+        <v>24.711265778631798</v>
       </c>
       <c r="BK66" s="8"/>
       <c r="BL66" s="8"/>
@@ -7644,15 +7644,15 @@
       </c>
       <c r="C67">
         <f>$AO78/1000000</f>
-        <v>21.9089741515082</v>
+        <v>18.709797413723699</v>
       </c>
       <c r="D67">
         <f>$AO79/1000000</f>
-        <v>24.991596348136802</v>
+        <v>21.3253398111043</v>
       </c>
       <c r="E67">
         <f>$AO80/1000000</f>
-        <v>28.5052525548383</v>
+        <v>24.386344809465502</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -7662,15 +7662,15 @@
       </c>
       <c r="J67">
         <f>$AO83/1000000</f>
-        <v>21.9723253035082</v>
+        <v>18.806695788443701</v>
       </c>
       <c r="K67">
         <f>$AO84/1000000</f>
-        <v>25.082779225556102</v>
+        <v>21.428429479233298</v>
       </c>
       <c r="L67">
         <f>$AO85/1000000</f>
-        <v>28.596435432257699</v>
+        <v>24.4894344775945</v>
       </c>
       <c r="V67" t="s">
         <v>4</v>
@@ -7680,15 +7680,15 @@
       </c>
       <c r="X67">
         <f t="shared" si="11"/>
-        <v>21.9723253035082</v>
+        <v>18.806695788443701</v>
       </c>
       <c r="Y67">
         <f t="shared" si="10"/>
-        <v>25.082779225556102</v>
+        <v>21.428429479233298</v>
       </c>
       <c r="Z67">
         <f t="shared" si="10"/>
-        <v>28.596435432257699</v>
+        <v>24.4894344775945</v>
       </c>
     </row>
     <row r="68" spans="1:76" x14ac:dyDescent="0.25">
@@ -7700,15 +7700,15 @@
       </c>
       <c r="C68">
         <f>$AP78/1000000</f>
-        <v>21.7272470847251</v>
+        <v>18.586482936644199</v>
       </c>
       <c r="D68">
         <f>$AP79/1000000</f>
-        <v>24.739193356205099</v>
+        <v>21.166840082788198</v>
       </c>
       <c r="E68">
         <f>$AP80/1000000</f>
-        <v>28.2411596850366</v>
+        <v>24.217635739481999</v>
       </c>
       <c r="H68" t="s">
         <v>5</v>
@@ -7718,15 +7718,15 @@
       </c>
       <c r="J68">
         <f>$AP83/1000000</f>
-        <v>21.8272251647251</v>
+        <v>18.721007544644198</v>
       </c>
       <c r="K68">
         <f>$AP84/1000000</f>
-        <v>24.864527389753498</v>
+        <v>21.301364690788198</v>
       </c>
       <c r="L68">
         <f>$AP85/1000000</f>
-        <v>28.366493718584998</v>
+        <v>24.352160347481998</v>
       </c>
       <c r="V68" t="s">
         <v>5</v>
@@ -7736,15 +7736,15 @@
       </c>
       <c r="X68">
         <f t="shared" si="11"/>
-        <v>21.8272251647251</v>
+        <v>18.721007544644198</v>
       </c>
       <c r="Y68">
         <f t="shared" si="10"/>
-        <v>24.864527389753498</v>
+        <v>21.301364690788198</v>
       </c>
       <c r="Z68">
         <f t="shared" si="10"/>
-        <v>28.366493718584998</v>
+        <v>24.352160347481998</v>
       </c>
     </row>
     <row r="69" spans="1:76" x14ac:dyDescent="0.25">
@@ -7756,15 +7756,15 @@
       </c>
       <c r="C69">
         <f>$AQ78/1000000</f>
-        <v>21.4886179530451</v>
+        <v>18.530984085175501</v>
       </c>
       <c r="D69">
         <f>$AQ79/1000000</f>
-        <v>24.4676844885253</v>
+        <v>21.103356684446801</v>
       </c>
       <c r="E69">
         <f>$AQ80/1000000</f>
-        <v>27.982587152528101</v>
+        <v>24.1648354614771</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
@@ -7774,15 +7774,15 @@
       </c>
       <c r="J69">
         <f>$AQ83/1000000</f>
-        <v>21.626934833045098</v>
+        <v>18.687180133691601</v>
       </c>
       <c r="K69">
         <f>$AQ84/1000000</f>
-        <v>24.6208939646543</v>
+        <v>21.259552732962899</v>
       </c>
       <c r="L69">
         <f>$AQ85/1000000</f>
-        <v>28.1357966286572</v>
+        <v>24.321031509993198</v>
       </c>
       <c r="V69" t="s">
         <v>6</v>
@@ -7792,15 +7792,15 @@
       </c>
       <c r="X69">
         <f t="shared" si="11"/>
-        <v>21.626934833045098</v>
+        <v>18.687180133691601</v>
       </c>
       <c r="Y69">
         <f t="shared" si="10"/>
-        <v>24.6208939646543</v>
+        <v>21.259552732962899</v>
       </c>
       <c r="Z69">
         <f t="shared" si="10"/>
-        <v>28.1357966286572</v>
+        <v>24.321031509993198</v>
       </c>
     </row>
     <row r="70" spans="1:76" x14ac:dyDescent="0.25">
@@ -7812,15 +7812,15 @@
       </c>
       <c r="C70">
         <f>$AR78/1000000</f>
-        <v>21.249825120628799</v>
+        <v>18.475485233706799</v>
       </c>
       <c r="D70">
         <f>$AR79/1000000</f>
-        <v>24.2123330746089</v>
+        <v>21.039873286105401</v>
       </c>
       <c r="E70">
         <f>$AR80/1000000</f>
-        <v>27.740172073783199</v>
+        <v>24.112035183472102</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
@@ -7830,15 +7830,15 @@
       </c>
       <c r="J70">
         <f>$AR83/1000000</f>
-        <v>21.4266445013651</v>
+        <v>18.650850873964899</v>
       </c>
       <c r="K70">
         <f>$AR84/1000000</f>
-        <v>24.3903884707379</v>
+        <v>21.215238926363401</v>
       </c>
       <c r="L70">
         <f>$AR85/1000000</f>
-        <v>27.9182274699122</v>
+        <v>24.287400823730202</v>
       </c>
       <c r="V70" t="s">
         <v>7</v>
@@ -7848,15 +7848,15 @@
       </c>
       <c r="X70">
         <f t="shared" si="11"/>
-        <v>21.4266445013651</v>
+        <v>18.650850873964899</v>
       </c>
       <c r="Y70">
         <f t="shared" si="10"/>
-        <v>24.3903884707379</v>
+        <v>21.215238926363401</v>
       </c>
       <c r="Z70">
         <f t="shared" si="10"/>
-        <v>27.9182274699122</v>
+        <v>24.287400823730202</v>
       </c>
     </row>
     <row r="71" spans="1:76" x14ac:dyDescent="0.25">
@@ -7868,15 +7868,15 @@
       </c>
       <c r="C71">
         <f>$AS78/1000000</f>
-        <v>20.898126743727698</v>
+        <v>18.1979909763633</v>
       </c>
       <c r="D71">
         <f>$AS79/1000000</f>
-        <v>23.812291717715098</v>
+        <v>20.722456294398299</v>
       </c>
       <c r="E71">
         <f>$AS80/1000000</f>
-        <v>27.4048123927464</v>
+        <v>23.848033793447499</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
@@ -7886,15 +7886,15 @@
       </c>
       <c r="J71">
         <f>$AS83/1000000</f>
-        <v>21.1549689011471</v>
+        <v>18.431676843718101</v>
       </c>
       <c r="K71">
         <f>$AS84/1000000</f>
-        <v>24.069133875134501</v>
+        <v>20.956142161753199</v>
       </c>
       <c r="L71">
         <f>$AS85/1000000</f>
-        <v>27.6616545501657</v>
+        <v>24.0817196608023</v>
       </c>
       <c r="V71" t="s">
         <v>8</v>
@@ -7904,15 +7904,15 @@
       </c>
       <c r="X71">
         <f t="shared" si="11"/>
-        <v>21.1549689011471</v>
+        <v>18.431676843718101</v>
       </c>
       <c r="Y71">
         <f t="shared" si="10"/>
-        <v>24.069133875134501</v>
+        <v>20.956142161753199</v>
       </c>
       <c r="Z71">
         <f t="shared" si="10"/>
-        <v>27.6616545501657</v>
+        <v>24.0817196608023</v>
       </c>
     </row>
     <row r="72" spans="1:76" x14ac:dyDescent="0.25">
@@ -7924,15 +7924,15 @@
       </c>
       <c r="C72">
         <f>$AT78/1000000</f>
-        <v>20.562105187471801</v>
+        <v>17.920496719019802</v>
       </c>
       <c r="D72">
         <f>$AT79/1000000</f>
-        <v>23.4279271814666</v>
+        <v>20.4050393026913</v>
       </c>
       <c r="E72">
         <f>$AT80/1000000</f>
-        <v>27.085129532354799</v>
+        <v>23.5840324034228</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
@@ -7942,15 +7942,15 @@
       </c>
       <c r="J72">
         <f>$AT83/1000000</f>
-        <v>20.821996041665301</v>
+        <v>18.149956594116599</v>
       </c>
       <c r="K72">
         <f>$AT84/1000000</f>
-        <v>23.687818035660101</v>
+        <v>20.634499177788001</v>
       </c>
       <c r="L72">
         <f>$AT85/1000000</f>
-        <v>27.345020386548299</v>
+        <v>23.8134922785196</v>
       </c>
       <c r="V72" t="s">
         <v>9</v>
@@ -7960,15 +7960,15 @@
       </c>
       <c r="X72">
         <f t="shared" si="11"/>
-        <v>20.821996041665301</v>
+        <v>18.149956594116599</v>
       </c>
       <c r="Y72">
         <f t="shared" si="10"/>
-        <v>23.687818035660101</v>
+        <v>20.634499177788001</v>
       </c>
       <c r="Z72">
         <f t="shared" si="10"/>
-        <v>27.345020386548299</v>
+        <v>23.8134922785196</v>
       </c>
     </row>
     <row r="73" spans="1:76" x14ac:dyDescent="0.25">
@@ -7980,15 +7980,15 @@
       </c>
       <c r="C73">
         <f>$AU78/1000000</f>
-        <v>20.226083631215801</v>
+        <v>17.6430024616763</v>
       </c>
       <c r="D73">
         <f>$AU79/1000000</f>
-        <v>23.043562645218</v>
+        <v>20.087622310984202</v>
       </c>
       <c r="E73">
         <f>$AU80/1000000</f>
-        <v>26.7654466719632</v>
+        <v>23.320031013398101</v>
       </c>
       <c r="H73" t="s">
         <v>10</v>
@@ -7998,15 +7998,15 @@
       </c>
       <c r="J73">
         <f>$AU83/1000000</f>
-        <v>20.413285117667499</v>
+        <v>17.805690125160101</v>
       </c>
       <c r="K73">
         <f>$AU84/1000000</f>
-        <v>23.230764131669599</v>
+        <v>20.250309974468102</v>
       </c>
       <c r="L73">
         <f>$AU85/1000000</f>
-        <v>26.952648158414799</v>
+        <v>23.482718676881998</v>
       </c>
       <c r="V73" t="s">
         <v>10</v>
@@ -8016,15 +8016,15 @@
       </c>
       <c r="X73">
         <f t="shared" si="11"/>
-        <v>20.413285117667499</v>
+        <v>17.805690125160101</v>
       </c>
       <c r="Y73">
         <f t="shared" si="10"/>
-        <v>23.230764131669599</v>
+        <v>20.250309974468102</v>
       </c>
       <c r="Z73">
         <f t="shared" si="10"/>
-        <v>26.952648158414799</v>
+        <v>23.482718676881998</v>
       </c>
     </row>
     <row r="74" spans="1:76" x14ac:dyDescent="0.25">
@@ -8036,15 +8036,15 @@
       </c>
       <c r="C74">
         <f>$AV78/1000000</f>
-        <v>19.822857763708701</v>
+        <v>17.310009352864103</v>
       </c>
       <c r="D74">
         <f>$AV79/1000000</f>
-        <v>22.582325201719701</v>
+        <v>19.706721920935703</v>
       </c>
       <c r="E74">
         <f>$AV80/1000000</f>
-        <v>26.381827239493298</v>
+        <v>23.003229345368499</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -8054,15 +8054,15 @@
       </c>
       <c r="J74">
         <f>$AV83/1000000</f>
-        <v>19.822857763708701</v>
+        <v>17.310009352864103</v>
       </c>
       <c r="K74">
         <f>$AV84/1000000</f>
-        <v>22.582325201719701</v>
+        <v>19.706721920935703</v>
       </c>
       <c r="L74">
         <f>$AV85/1000000</f>
-        <v>26.381827239493298</v>
+        <v>23.003229345368499</v>
       </c>
       <c r="V74" t="s">
         <v>11</v>
@@ -8072,52 +8072,52 @@
       </c>
       <c r="X74">
         <f t="shared" si="11"/>
-        <v>19.822857763708701</v>
+        <v>17.310009352864103</v>
       </c>
       <c r="Y74">
         <f t="shared" si="10"/>
-        <v>22.582325201719701</v>
+        <v>19.706721920935703</v>
       </c>
       <c r="Z74">
         <f t="shared" si="10"/>
-        <v>26.381827239493298</v>
+        <v>23.003229345368499</v>
       </c>
     </row>
     <row r="75" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="BF75" s="11" t="s">
+      <c r="BF75" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="BG75" s="11"/>
-      <c r="BH75" s="11"/>
-      <c r="BI75" s="11"/>
-      <c r="BJ75" s="11"/>
-      <c r="BK75" s="11"/>
-      <c r="BL75" s="11"/>
-      <c r="BM75" s="11"/>
-      <c r="BN75" s="11"/>
-      <c r="BO75" s="11"/>
-      <c r="BP75" s="11"/>
-      <c r="BQ75" s="11"/>
-      <c r="BR75" s="11"/>
-      <c r="BS75" s="11"/>
+      <c r="BG75" s="19"/>
+      <c r="BH75" s="19"/>
+      <c r="BI75" s="19"/>
+      <c r="BJ75" s="19"/>
+      <c r="BK75" s="19"/>
+      <c r="BL75" s="19"/>
+      <c r="BM75" s="19"/>
+      <c r="BN75" s="19"/>
+      <c r="BO75" s="19"/>
+      <c r="BP75" s="19"/>
+      <c r="BQ75" s="19"/>
+      <c r="BR75" s="19"/>
+      <c r="BS75" s="19"/>
     </row>
     <row r="76" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="AI76" s="19" t="s">
+      <c r="AI76" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ76" s="19"/>
-      <c r="AK76" s="19"/>
-      <c r="AL76" s="19"/>
-      <c r="AM76" s="19"/>
-      <c r="AN76" s="19"/>
-      <c r="AO76" s="19"/>
-      <c r="AP76" s="19"/>
-      <c r="AQ76" s="19"/>
-      <c r="AR76" s="19"/>
-      <c r="AS76" s="19"/>
-      <c r="AT76" s="19"/>
-      <c r="AU76" s="19"/>
-      <c r="AV76" s="19"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="10"/>
+      <c r="AO76" s="10"/>
+      <c r="AP76" s="10"/>
+      <c r="AQ76" s="10"/>
+      <c r="AR76" s="10"/>
+      <c r="AS76" s="10"/>
+      <c r="AT76" s="10"/>
+      <c r="AU76" s="10"/>
+      <c r="AV76" s="10"/>
       <c r="BF76" s="9"/>
       <c r="BG76" s="9"/>
       <c r="BH76" s="9" t="s">
@@ -8201,40 +8201,40 @@
         <v>13</v>
       </c>
       <c r="BH77" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BI77" s="9">
-        <v>22054182.806998901</v>
+        <v>18913812.9843322</v>
       </c>
       <c r="BJ77" s="9">
-        <v>22065870.850501899</v>
+        <v>18904760.724015702</v>
       </c>
       <c r="BK77" s="9">
-        <v>22102906.654945701</v>
+        <v>18895143.829459898</v>
       </c>
       <c r="BL77" s="9">
-        <v>21908974.151508201</v>
+        <v>18709797.4137237</v>
       </c>
       <c r="BM77" s="9">
-        <v>21727247.084725101</v>
+        <v>18586482.9366442</v>
       </c>
       <c r="BN77" s="9">
-        <v>21488617.9530451</v>
+        <v>18530984.085175499</v>
       </c>
       <c r="BO77" s="9">
-        <v>21249825.1206288</v>
+        <v>18475485.233706798</v>
       </c>
       <c r="BP77" s="9">
-        <v>20898126.743727699</v>
+        <v>18197990.976363301</v>
       </c>
       <c r="BQ77" s="9">
-        <v>20562105.1874718</v>
+        <v>17920496.7190198</v>
       </c>
       <c r="BR77" s="9">
-        <v>20226083.6312158</v>
+        <v>17643002.4616763</v>
       </c>
       <c r="BS77" s="9">
-        <v>19822857.763708699</v>
+        <v>17310009.352864102</v>
       </c>
     </row>
     <row r="78" spans="1:76" x14ac:dyDescent="0.25">
@@ -8246,51 +8246,51 @@
       </c>
       <c r="AK78">
         <f>BH77</f>
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="AL78">
         <f t="shared" ref="AL78:AV80" si="12">BI77</f>
-        <v>22054182.806998901</v>
+        <v>18913812.9843322</v>
       </c>
       <c r="AM78">
         <f t="shared" si="12"/>
-        <v>22065870.850501899</v>
+        <v>18904760.724015702</v>
       </c>
       <c r="AN78">
         <f t="shared" si="12"/>
-        <v>22102906.654945701</v>
+        <v>18895143.829459898</v>
       </c>
       <c r="AO78">
         <f t="shared" si="12"/>
-        <v>21908974.151508201</v>
+        <v>18709797.4137237</v>
       </c>
       <c r="AP78">
         <f t="shared" si="12"/>
-        <v>21727247.084725101</v>
+        <v>18586482.9366442</v>
       </c>
       <c r="AQ78">
         <f t="shared" si="12"/>
-        <v>21488617.9530451</v>
+        <v>18530984.085175499</v>
       </c>
       <c r="AR78">
         <f t="shared" si="12"/>
-        <v>21249825.1206288</v>
+        <v>18475485.233706798</v>
       </c>
       <c r="AS78">
         <f t="shared" si="12"/>
-        <v>20898126.743727699</v>
+        <v>18197990.976363301</v>
       </c>
       <c r="AT78">
         <f t="shared" si="12"/>
-        <v>20562105.1874718</v>
+        <v>17920496.7190198</v>
       </c>
       <c r="AU78">
         <f t="shared" si="12"/>
-        <v>20226083.6312158</v>
+        <v>17643002.4616763</v>
       </c>
       <c r="AV78">
         <f t="shared" si="12"/>
-        <v>19822857.763708699</v>
+        <v>17310009.352864102</v>
       </c>
       <c r="BF78" s="9" t="s">
         <v>12</v>
@@ -8299,40 +8299,40 @@
         <v>14</v>
       </c>
       <c r="BH78" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BI78" s="9">
-        <v>25415977.529877599</v>
+        <v>21757589.141716499</v>
       </c>
       <c r="BJ78" s="9">
-        <v>25364188.973704699</v>
+        <v>21690162.9967217</v>
       </c>
       <c r="BK78" s="9">
-        <v>25283482.839423299</v>
+        <v>21577017.427764501</v>
       </c>
       <c r="BL78" s="9">
-        <v>24991596.348136801</v>
+        <v>21325339.811104301</v>
       </c>
       <c r="BM78" s="9">
-        <v>24739193.356205098</v>
+        <v>21166840.082788199</v>
       </c>
       <c r="BN78" s="9">
-        <v>24467684.488525301</v>
+        <v>21103356.684446801</v>
       </c>
       <c r="BO78" s="9">
-        <v>24212333.0746089</v>
+        <v>21039873.286105402</v>
       </c>
       <c r="BP78" s="9">
-        <v>23812291.717715099</v>
+        <v>20722456.2943983</v>
       </c>
       <c r="BQ78" s="9">
-        <v>23427927.181466602</v>
+        <v>20405039.302691299</v>
       </c>
       <c r="BR78" s="9">
-        <v>23043562.645218</v>
+        <v>20087622.310984202</v>
       </c>
       <c r="BS78" s="9">
-        <v>22582325.201719701</v>
+        <v>19706721.920935702</v>
       </c>
     </row>
     <row r="79" spans="1:76" x14ac:dyDescent="0.25">
@@ -8344,51 +8344,51 @@
       </c>
       <c r="AK79">
         <f t="shared" ref="AK79:AK80" si="13">BH78</f>
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="AL79">
         <f t="shared" si="12"/>
-        <v>25415977.529877599</v>
+        <v>21757589.141716499</v>
       </c>
       <c r="AM79">
         <f t="shared" si="12"/>
-        <v>25364188.973704699</v>
+        <v>21690162.9967217</v>
       </c>
       <c r="AN79">
         <f t="shared" si="12"/>
-        <v>25283482.839423299</v>
+        <v>21577017.427764501</v>
       </c>
       <c r="AO79">
         <f t="shared" si="12"/>
-        <v>24991596.348136801</v>
+        <v>21325339.811104301</v>
       </c>
       <c r="AP79">
         <f t="shared" si="12"/>
-        <v>24739193.356205098</v>
+        <v>21166840.082788199</v>
       </c>
       <c r="AQ79">
         <f t="shared" si="12"/>
-        <v>24467684.488525301</v>
+        <v>21103356.684446801</v>
       </c>
       <c r="AR79">
         <f t="shared" si="12"/>
-        <v>24212333.0746089</v>
+        <v>21039873.286105402</v>
       </c>
       <c r="AS79">
         <f t="shared" si="12"/>
-        <v>23812291.717715099</v>
+        <v>20722456.2943983</v>
       </c>
       <c r="AT79">
         <f t="shared" si="12"/>
-        <v>23427927.181466602</v>
+        <v>20405039.302691299</v>
       </c>
       <c r="AU79">
         <f t="shared" si="12"/>
-        <v>23043562.645218</v>
+        <v>20087622.310984202</v>
       </c>
       <c r="AV79">
         <f t="shared" si="12"/>
-        <v>22582325.201719701</v>
+        <v>19706721.920935702</v>
       </c>
       <c r="BF79" s="9" t="s">
         <v>12</v>
@@ -8397,40 +8397,40 @@
         <v>15</v>
       </c>
       <c r="BH79" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BI79" s="9">
-        <v>28893936.718333799</v>
+        <v>24783828.836075701</v>
       </c>
       <c r="BJ79" s="9">
-        <v>28857943.794199299</v>
+        <v>24731394.239637502</v>
       </c>
       <c r="BK79" s="9">
-        <v>28808828.923994899</v>
+        <v>24648231.7677931</v>
       </c>
       <c r="BL79" s="9">
-        <v>28505252.5548383</v>
+        <v>24386344.809465501</v>
       </c>
       <c r="BM79" s="9">
-        <v>28241159.6850366</v>
+        <v>24217635.739482</v>
       </c>
       <c r="BN79" s="9">
-        <v>27982587.1525281</v>
+        <v>24164835.461477101</v>
       </c>
       <c r="BO79" s="9">
-        <v>27740172.0737832</v>
+        <v>24112035.183472101</v>
       </c>
       <c r="BP79" s="9">
-        <v>27404812.3927464</v>
+        <v>23848033.793447498</v>
       </c>
       <c r="BQ79" s="9">
-        <v>27085129.532354798</v>
+        <v>23584032.403422799</v>
       </c>
       <c r="BR79" s="9">
-        <v>26765446.6719632</v>
+        <v>23320031.0133981</v>
       </c>
       <c r="BS79" s="9">
-        <v>26381827.239493299</v>
+        <v>23003229.345368501</v>
       </c>
     </row>
     <row r="80" spans="1:76" x14ac:dyDescent="0.25">
@@ -8442,51 +8442,51 @@
       </c>
       <c r="AK80">
         <f t="shared" si="13"/>
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="AL80">
         <f t="shared" si="12"/>
-        <v>28893936.718333799</v>
+        <v>24783828.836075701</v>
       </c>
       <c r="AM80">
         <f t="shared" si="12"/>
-        <v>28857943.794199299</v>
+        <v>24731394.239637502</v>
       </c>
       <c r="AN80">
         <f t="shared" si="12"/>
-        <v>28808828.923994899</v>
+        <v>24648231.7677931</v>
       </c>
       <c r="AO80">
         <f t="shared" si="12"/>
-        <v>28505252.5548383</v>
+        <v>24386344.809465501</v>
       </c>
       <c r="AP80">
         <f t="shared" si="12"/>
-        <v>28241159.6850366</v>
+        <v>24217635.739482</v>
       </c>
       <c r="AQ80">
         <f t="shared" si="12"/>
-        <v>27982587.1525281</v>
+        <v>24164835.461477101</v>
       </c>
       <c r="AR80">
         <f t="shared" si="12"/>
-        <v>27740172.0737832</v>
+        <v>24112035.183472101</v>
       </c>
       <c r="AS80">
         <f t="shared" si="12"/>
-        <v>27404812.3927464</v>
+        <v>23848033.793447498</v>
       </c>
       <c r="AT80">
         <f t="shared" si="12"/>
-        <v>27085129.532354798</v>
+        <v>23584032.403422799</v>
       </c>
       <c r="AU80">
         <f t="shared" si="12"/>
-        <v>26765446.6719632</v>
+        <v>23320031.0133981</v>
       </c>
       <c r="AV80">
         <f t="shared" si="12"/>
-        <v>26381827.239493299</v>
+        <v>23003229.345368501</v>
       </c>
       <c r="BF80" s="9" t="s">
         <v>16</v>
@@ -8495,40 +8495,40 @@
         <v>13</v>
       </c>
       <c r="BH80" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BI80" s="9">
-        <v>22058150.426998898</v>
+        <v>18921119.200532202</v>
       </c>
       <c r="BJ80" s="9">
-        <v>22073061.040846702</v>
+        <v>18918910.211050201</v>
       </c>
       <c r="BK80" s="9">
-        <v>22113975.703834601</v>
+        <v>18921385.268571101</v>
       </c>
       <c r="BL80" s="9">
-        <v>21940649.727508198</v>
+        <v>18758246.6010837</v>
       </c>
       <c r="BM80" s="9">
-        <v>21777236.1247251</v>
+        <v>18653745.240644202</v>
       </c>
       <c r="BN80" s="9">
-        <v>21557776.393045101</v>
+        <v>18609082.109433599</v>
       </c>
       <c r="BO80" s="9">
-        <v>21338316.661365099</v>
+        <v>18563168.053835802</v>
       </c>
       <c r="BP80" s="9">
-        <v>21026547.822437402</v>
+        <v>18314833.910040699</v>
       </c>
       <c r="BQ80" s="9">
-        <v>20692050.614568599</v>
+        <v>18035226.656568199</v>
       </c>
       <c r="BR80" s="9">
-        <v>20319684.374441601</v>
+        <v>17724346.293418199</v>
       </c>
       <c r="BS80" s="9">
-        <v>19822857.763708699</v>
+        <v>17310009.352864102</v>
       </c>
     </row>
     <row r="81" spans="35:71" x14ac:dyDescent="0.25">
@@ -8539,40 +8539,40 @@
         <v>14</v>
       </c>
       <c r="BH81" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BI81" s="9">
-        <v>25423302.071813099</v>
+        <v>21766825.0631359</v>
       </c>
       <c r="BJ81" s="9">
-        <v>25377885.1001563</v>
+        <v>21707730.392850801</v>
       </c>
       <c r="BK81" s="9">
-        <v>25307063.2626491</v>
+        <v>21608534.4331838</v>
       </c>
       <c r="BL81" s="9">
-        <v>25037187.786846399</v>
+        <v>21376884.6451688</v>
       </c>
       <c r="BM81" s="9">
-        <v>24801860.372979298</v>
+        <v>21234102.386788201</v>
       </c>
       <c r="BN81" s="9">
-        <v>24544289.226589799</v>
+        <v>21181454.7087049</v>
       </c>
       <c r="BO81" s="9">
-        <v>24301360.772673398</v>
+        <v>21127556.106234401</v>
       </c>
       <c r="BP81" s="9">
-        <v>23940712.796424799</v>
+        <v>20839299.228075799</v>
       </c>
       <c r="BQ81" s="9">
-        <v>23557872.608563401</v>
+        <v>20519769.240239698</v>
       </c>
       <c r="BR81" s="9">
-        <v>23137163.388443802</v>
+        <v>20168966.142726101</v>
       </c>
       <c r="BS81" s="9">
-        <v>22582325.201719701</v>
+        <v>19706721.920935702</v>
       </c>
     </row>
     <row r="82" spans="35:71" x14ac:dyDescent="0.25">
@@ -8583,40 +8583,40 @@
         <v>15</v>
       </c>
       <c r="BH82" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BI82" s="9">
-        <v>28901261.260269299</v>
+        <v>24793064.757495102</v>
       </c>
       <c r="BJ82" s="9">
-        <v>28871639.920650899</v>
+        <v>24748961.635766499</v>
       </c>
       <c r="BK82" s="9">
-        <v>28832409.3472207</v>
+        <v>24679748.7732125</v>
       </c>
       <c r="BL82" s="9">
-        <v>28550843.993547998</v>
+        <v>24437889.64353</v>
       </c>
       <c r="BM82" s="9">
-        <v>28303826.7018108</v>
+        <v>24284898.043481998</v>
       </c>
       <c r="BN82" s="9">
-        <v>28059191.890592702</v>
+        <v>24242933.4857351</v>
       </c>
       <c r="BO82" s="9">
-        <v>27829199.771847699</v>
+        <v>24199718.0036011</v>
       </c>
       <c r="BP82" s="9">
-        <v>27533233.471456099</v>
+        <v>23964876.7271249</v>
       </c>
       <c r="BQ82" s="9">
-        <v>27215074.959451601</v>
+        <v>23698762.340971202</v>
       </c>
       <c r="BR82" s="9">
-        <v>26859047.415189002</v>
+        <v>23401374.8451401</v>
       </c>
       <c r="BS82" s="9">
-        <v>26381827.239493299</v>
+        <v>23003229.345368501</v>
       </c>
     </row>
     <row r="83" spans="35:71" x14ac:dyDescent="0.25">
@@ -8628,51 +8628,51 @@
       </c>
       <c r="AK83">
         <f>BH86</f>
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="AL83">
         <f t="shared" ref="AL83:AV85" si="14">BI86</f>
-        <v>22062118.046998899</v>
+        <v>18928425.416732199</v>
       </c>
       <c r="AM83">
         <f t="shared" si="14"/>
-        <v>22080251.231191501</v>
+        <v>18933059.6980846</v>
       </c>
       <c r="AN83">
         <f t="shared" si="14"/>
-        <v>22125044.7527234</v>
+        <v>18947626.7076822</v>
       </c>
       <c r="AO83">
         <f t="shared" si="14"/>
-        <v>21972325.3035082</v>
+        <v>18806695.788443699</v>
       </c>
       <c r="AP83">
         <f t="shared" si="14"/>
-        <v>21827225.164725099</v>
+        <v>18721007.544644199</v>
       </c>
       <c r="AQ83">
         <f t="shared" si="14"/>
-        <v>21626934.833045099</v>
+        <v>18687180.133691601</v>
       </c>
       <c r="AR83">
         <f t="shared" si="14"/>
-        <v>21426644.501365099</v>
+        <v>18650850.873964898</v>
       </c>
       <c r="AS83">
         <f t="shared" si="14"/>
-        <v>21154968.901147101</v>
+        <v>18431676.8437181</v>
       </c>
       <c r="AT83">
         <f t="shared" si="14"/>
-        <v>20821996.041665301</v>
+        <v>18149956.594116598</v>
       </c>
       <c r="AU83">
         <f t="shared" si="14"/>
-        <v>20413285.1176675</v>
+        <v>17805690.125160102</v>
       </c>
       <c r="AV83">
         <f t="shared" si="14"/>
-        <v>19822857.763708699</v>
+        <v>17310009.352864102</v>
       </c>
       <c r="BF83" s="9" t="s">
         <v>17</v>
@@ -8681,40 +8681,40 @@
         <v>13</v>
       </c>
       <c r="BH83" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BI83" s="9">
-        <v>22060134.236998901</v>
+        <v>18924772.308632199</v>
       </c>
       <c r="BJ83" s="9">
-        <v>22076656.1360191</v>
+        <v>18925984.954567399</v>
       </c>
       <c r="BK83" s="9">
-        <v>22119510.228278998</v>
+        <v>18934505.988126598</v>
       </c>
       <c r="BL83" s="9">
-        <v>21956487.515508201</v>
+        <v>18782471.194763701</v>
       </c>
       <c r="BM83" s="9">
-        <v>21802230.644725099</v>
+        <v>18687376.3926442</v>
       </c>
       <c r="BN83" s="9">
-        <v>21592355.6130451</v>
+        <v>18648131.1215626</v>
       </c>
       <c r="BO83" s="9">
-        <v>21382480.581365101</v>
+        <v>18607009.463900398</v>
       </c>
       <c r="BP83" s="9">
-        <v>21090758.361792199</v>
+        <v>18373255.376879402</v>
       </c>
       <c r="BQ83" s="9">
-        <v>20757023.328116901</v>
+        <v>18092591.625342399</v>
       </c>
       <c r="BR83" s="9">
-        <v>20366484.7460545</v>
+        <v>17765018.209289201</v>
       </c>
       <c r="BS83" s="9">
-        <v>19822857.763708699</v>
+        <v>17310009.352864102</v>
       </c>
     </row>
     <row r="84" spans="35:71" x14ac:dyDescent="0.25">
@@ -8726,51 +8726,51 @@
       </c>
       <c r="AK84">
         <f t="shared" ref="AK84:AK85" si="15">BH87</f>
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="AL84">
         <f t="shared" si="14"/>
-        <v>25430626.613748599</v>
+        <v>21776060.9845552</v>
       </c>
       <c r="AM84">
         <f t="shared" si="14"/>
-        <v>25391581.2266079</v>
+        <v>21725297.788979799</v>
       </c>
       <c r="AN84">
         <f t="shared" si="14"/>
-        <v>25330643.685874902</v>
+        <v>21640051.4386032</v>
       </c>
       <c r="AO84">
         <f t="shared" si="14"/>
-        <v>25082779.225556102</v>
+        <v>21428429.479233298</v>
       </c>
       <c r="AP84">
         <f t="shared" si="14"/>
-        <v>24864527.389753498</v>
+        <v>21301364.690788198</v>
       </c>
       <c r="AQ84">
         <f t="shared" si="14"/>
-        <v>24620893.9646543</v>
+        <v>21259552.732962899</v>
       </c>
       <c r="AR84">
         <f t="shared" si="14"/>
-        <v>24390388.470737901</v>
+        <v>21215238.926363401</v>
       </c>
       <c r="AS84">
         <f t="shared" si="14"/>
-        <v>24069133.875134502</v>
+        <v>20956142.1617532</v>
       </c>
       <c r="AT84">
         <f t="shared" si="14"/>
-        <v>23687818.035660099</v>
+        <v>20634499.177788001</v>
       </c>
       <c r="AU84">
         <f t="shared" si="14"/>
-        <v>23230764.1316696</v>
+        <v>20250309.974468101</v>
       </c>
       <c r="AV84">
         <f t="shared" si="14"/>
-        <v>22582325.201719701</v>
+        <v>19706721.920935702</v>
       </c>
       <c r="BF84" s="9" t="s">
         <v>17</v>
@@ -8779,40 +8779,40 @@
         <v>14</v>
       </c>
       <c r="BH84" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BI84" s="9">
-        <v>25426964.342780899</v>
+        <v>21771443.023845501</v>
       </c>
       <c r="BJ84" s="9">
-        <v>25384733.163382102</v>
+        <v>21716514.0909153</v>
       </c>
       <c r="BK84" s="9">
-        <v>25318853.474261999</v>
+        <v>21624292.935893498</v>
       </c>
       <c r="BL84" s="9">
-        <v>25059983.506201301</v>
+        <v>21402657.062201101</v>
       </c>
       <c r="BM84" s="9">
-        <v>24833193.881366398</v>
+        <v>21267733.538788199</v>
       </c>
       <c r="BN84" s="9">
-        <v>24582591.5956221</v>
+        <v>21220503.720833901</v>
       </c>
       <c r="BO84" s="9">
-        <v>24345874.6217057</v>
+        <v>21171397.516298901</v>
       </c>
       <c r="BP84" s="9">
-        <v>24004923.3357797</v>
+        <v>20897720.694914501</v>
       </c>
       <c r="BQ84" s="9">
-        <v>23622845.3221117</v>
+        <v>20577134.209013902</v>
       </c>
       <c r="BR84" s="9">
-        <v>23183963.760056701</v>
+        <v>20209638.058597099</v>
       </c>
       <c r="BS84" s="9">
-        <v>22582325.201719701</v>
+        <v>19706721.920935702</v>
       </c>
     </row>
     <row r="85" spans="35:71" x14ac:dyDescent="0.25">
@@ -8824,51 +8824,51 @@
       </c>
       <c r="AK85">
         <f t="shared" si="15"/>
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="AL85">
         <f t="shared" si="14"/>
-        <v>28908585.802204698</v>
+        <v>24802300.678914499</v>
       </c>
       <c r="AM85">
         <f t="shared" si="14"/>
-        <v>28885336.0471026</v>
+        <v>24766529.0318955</v>
       </c>
       <c r="AN85">
         <f t="shared" si="14"/>
-        <v>28855989.770446502</v>
+        <v>24711265.778631799</v>
       </c>
       <c r="AO85">
         <f t="shared" si="14"/>
-        <v>28596435.432257701</v>
+        <v>24489434.477594499</v>
       </c>
       <c r="AP85">
         <f t="shared" si="14"/>
-        <v>28366493.718584999</v>
+        <v>24352160.347482</v>
       </c>
       <c r="AQ85">
         <f t="shared" si="14"/>
-        <v>28135796.628657199</v>
+        <v>24321031.509993199</v>
       </c>
       <c r="AR85">
         <f t="shared" si="14"/>
-        <v>27918227.469912201</v>
+        <v>24287400.823730201</v>
       </c>
       <c r="AS85">
         <f t="shared" si="14"/>
-        <v>27661654.550165702</v>
+        <v>24081719.660802301</v>
       </c>
       <c r="AT85">
         <f t="shared" si="14"/>
-        <v>27345020.386548299</v>
+        <v>23813492.278519601</v>
       </c>
       <c r="AU85">
         <f t="shared" si="14"/>
-        <v>26952648.1584148</v>
+        <v>23482718.676881999</v>
       </c>
       <c r="AV85">
         <f t="shared" si="14"/>
-        <v>26381827.239493299</v>
+        <v>23003229.345368501</v>
       </c>
       <c r="BF85" s="9" t="s">
         <v>17</v>
@@ -8877,40 +8877,40 @@
         <v>15</v>
       </c>
       <c r="BH85" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BI85" s="9">
-        <v>28904923.531236999</v>
+        <v>24797682.7182048</v>
       </c>
       <c r="BJ85" s="9">
-        <v>28878487.983876701</v>
+        <v>24757745.333831001</v>
       </c>
       <c r="BK85" s="9">
-        <v>28844199.558833599</v>
+        <v>24695507.275922101</v>
       </c>
       <c r="BL85" s="9">
-        <v>28573639.7129029</v>
+        <v>24463662.060562301</v>
       </c>
       <c r="BM85" s="9">
-        <v>28335160.210197899</v>
+        <v>24318529.195482001</v>
       </c>
       <c r="BN85" s="9">
-        <v>28097494.259624898</v>
+        <v>24281982.497864101</v>
       </c>
       <c r="BO85" s="9">
-        <v>27873713.6208799</v>
+        <v>24243559.413665701</v>
       </c>
       <c r="BP85" s="9">
-        <v>27597444.0108109</v>
+        <v>24023298.193963598</v>
       </c>
       <c r="BQ85" s="9">
-        <v>27280047.673</v>
+        <v>23756127.309745401</v>
       </c>
       <c r="BR85" s="9">
-        <v>26905847.786801901</v>
+        <v>23442046.761011001</v>
       </c>
       <c r="BS85" s="9">
-        <v>26381827.239493299</v>
+        <v>23003229.345368501</v>
       </c>
     </row>
     <row r="86" spans="35:71" x14ac:dyDescent="0.25">
@@ -8921,40 +8921,40 @@
         <v>13</v>
       </c>
       <c r="BH86" s="9">
-        <v>22026789.267604399</v>
+        <v>18903673.196429901</v>
       </c>
       <c r="BI86" s="9">
-        <v>22062118.046998899</v>
+        <v>18928425.416732199</v>
       </c>
       <c r="BJ86" s="9">
-        <v>22080251.231191501</v>
+        <v>18933059.6980846</v>
       </c>
       <c r="BK86" s="9">
-        <v>22125044.7527234</v>
+        <v>18947626.7076822</v>
       </c>
       <c r="BL86" s="9">
-        <v>21972325.3035082</v>
+        <v>18806695.788443699</v>
       </c>
       <c r="BM86" s="9">
-        <v>21827225.164725099</v>
+        <v>18721007.544644199</v>
       </c>
       <c r="BN86" s="9">
-        <v>21626934.833045099</v>
+        <v>18687180.133691601</v>
       </c>
       <c r="BO86" s="9">
-        <v>21426644.501365099</v>
+        <v>18650850.873964898</v>
       </c>
       <c r="BP86" s="9">
-        <v>21154968.901147101</v>
+        <v>18431676.8437181</v>
       </c>
       <c r="BQ86" s="9">
-        <v>20821996.041665301</v>
+        <v>18149956.594116598</v>
       </c>
       <c r="BR86" s="9">
-        <v>20413285.1176675</v>
+        <v>17805690.125160102</v>
       </c>
       <c r="BS86" s="9">
-        <v>19822857.763708699</v>
+        <v>17310009.352864102</v>
       </c>
     </row>
     <row r="87" spans="35:71" x14ac:dyDescent="0.25">
@@ -8965,40 +8965,40 @@
         <v>14</v>
       </c>
       <c r="BH87" s="9">
-        <v>25469993.761509299</v>
+        <v>21822593.000848901</v>
       </c>
       <c r="BI87" s="9">
-        <v>25430626.613748599</v>
+        <v>21776060.9845552</v>
       </c>
       <c r="BJ87" s="9">
-        <v>25391581.2266079</v>
+        <v>21725297.788979799</v>
       </c>
       <c r="BK87" s="9">
-        <v>25330643.685874902</v>
+        <v>21640051.4386032</v>
       </c>
       <c r="BL87" s="9">
-        <v>25082779.225556102</v>
+        <v>21428429.479233298</v>
       </c>
       <c r="BM87" s="9">
-        <v>24864527.389753498</v>
+        <v>21301364.690788198</v>
       </c>
       <c r="BN87" s="9">
-        <v>24620893.9646543</v>
+        <v>21259552.732962899</v>
       </c>
       <c r="BO87" s="9">
-        <v>24390388.470737901</v>
+        <v>21215238.926363401</v>
       </c>
       <c r="BP87" s="9">
-        <v>24069133.875134502</v>
+        <v>20956142.1617532</v>
       </c>
       <c r="BQ87" s="9">
-        <v>23687818.035660099</v>
+        <v>20634499.177788001</v>
       </c>
       <c r="BR87" s="9">
-        <v>23230764.1316696</v>
+        <v>20250309.974468101</v>
       </c>
       <c r="BS87" s="9">
-        <v>22582325.201719701</v>
+        <v>19706721.920935702</v>
       </c>
     </row>
     <row r="88" spans="35:71" x14ac:dyDescent="0.25">
@@ -9009,40 +9009,40 @@
         <v>15</v>
       </c>
       <c r="BH88" s="9">
-        <v>28917188.730918098</v>
+        <v>24818533.946589101</v>
       </c>
       <c r="BI88" s="9">
-        <v>28908585.802204698</v>
+        <v>24802300.678914499</v>
       </c>
       <c r="BJ88" s="9">
-        <v>28885336.0471026</v>
+        <v>24766529.0318955</v>
       </c>
       <c r="BK88" s="9">
-        <v>28855989.770446502</v>
+        <v>24711265.778631799</v>
       </c>
       <c r="BL88" s="9">
-        <v>28596435.432257701</v>
+        <v>24489434.477594499</v>
       </c>
       <c r="BM88" s="9">
-        <v>28366493.718584999</v>
+        <v>24352160.347482</v>
       </c>
       <c r="BN88" s="9">
-        <v>28135796.628657199</v>
+        <v>24321031.509993199</v>
       </c>
       <c r="BO88" s="9">
-        <v>27918227.469912201</v>
+        <v>24287400.823730201</v>
       </c>
       <c r="BP88" s="9">
-        <v>27661654.550165702</v>
+        <v>24081719.660802301</v>
       </c>
       <c r="BQ88" s="9">
-        <v>27345020.386548299</v>
+        <v>23813492.278519601</v>
       </c>
       <c r="BR88" s="9">
-        <v>26952648.1584148</v>
+        <v>23482718.676881999</v>
       </c>
       <c r="BS88" s="9">
-        <v>26381827.239493299</v>
+        <v>23003229.345368501</v>
       </c>
     </row>
     <row r="97" spans="22:42" x14ac:dyDescent="0.25">
@@ -9066,13 +9066,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AI76:AV76"/>
-    <mergeCell ref="BK45:BX45"/>
-    <mergeCell ref="A59:AV59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:N60"/>
-    <mergeCell ref="O60:U60"/>
-    <mergeCell ref="V60:AB60"/>
     <mergeCell ref="BC2:BP2"/>
     <mergeCell ref="BF75:BS75"/>
     <mergeCell ref="A1:U1"/>
@@ -9081,6 +9074,13 @@
     <mergeCell ref="AI2:AV2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="H3:N3"/>
+    <mergeCell ref="AI76:AV76"/>
+    <mergeCell ref="BK45:BX45"/>
+    <mergeCell ref="A59:AV59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:N60"/>
+    <mergeCell ref="O60:U60"/>
+    <mergeCell ref="V60:AB60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
